--- a/othello/player_prog/result/rate_excel/random.xlsx
+++ b/othello/player_prog/result/rate_excel/random.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukai3264/takao/othello/player_prog/result/board1rateT_random/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukai3264/takao/othello/player_prog/result/rate_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87257E62-17CC-F04C-B44B-26D8E94F33FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD6C82-7DD4-EF46-AA8A-F078C6B267B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>random100</t>
   </si>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>AlphaBeta4</t>
+  </si>
+  <si>
+    <t>ave</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -395,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:J102"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -467,31 +471,31 @@
         <v>452</v>
       </c>
       <c r="B3">
-        <v>-857.0240729935947</v>
+        <v>739.86841444231072</v>
       </c>
       <c r="C3">
-        <v>-655.21989588288841</v>
+        <v>1110.929856517037</v>
       </c>
       <c r="D3">
-        <v>-609.72928264279017</v>
+        <v>1192.576341194947</v>
       </c>
       <c r="E3">
-        <v>-588.62306110393308</v>
+        <v>1237.743729593253</v>
       </c>
       <c r="F3">
-        <v>-336.44489954968168</v>
+        <v>1793.199259255957</v>
       </c>
       <c r="G3">
-        <v>-269.48947888608069</v>
+        <v>1961.146557708106</v>
       </c>
       <c r="H3">
-        <v>-506.11513735121702</v>
+        <v>1375.877476790612</v>
       </c>
       <c r="I3">
-        <v>-286.35459493978681</v>
+        <v>1905.3930220918451</v>
       </c>
       <c r="J3">
-        <v>-155.400561745815</v>
+        <v>2183.265342405934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -499,31 +503,31 @@
         <v>789</v>
       </c>
       <c r="B4">
-        <v>-1954.3520246761391</v>
+        <v>619.26227838043985</v>
       </c>
       <c r="C4">
-        <v>-1783.4409360566669</v>
+        <v>1039.598769819966</v>
       </c>
       <c r="D4">
-        <v>-1782.182134337738</v>
+        <v>1047.635822268581</v>
       </c>
       <c r="E4">
-        <v>-1734.891139350784</v>
+        <v>1163.197241352507</v>
       </c>
       <c r="F4">
-        <v>-1540.1199062002031</v>
+        <v>1837.308701981601</v>
       </c>
       <c r="G4">
-        <v>-1414.3186608749479</v>
+        <v>2282.1162114351</v>
       </c>
       <c r="H4">
-        <v>-1667.7983126645049</v>
+        <v>1338.080431890593</v>
       </c>
       <c r="I4">
-        <v>-1524.926372989162</v>
+        <v>1868.821235989767</v>
       </c>
       <c r="J4">
-        <v>-1432.0717192400889</v>
+        <v>2303.979306881447</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -531,31 +535,31 @@
         <v>680</v>
       </c>
       <c r="B5">
-        <v>-2264.7193139038368</v>
+        <v>726.25346755134785</v>
       </c>
       <c r="C5">
-        <v>-2173.3839092556018</v>
+        <v>968.71857439874952</v>
       </c>
       <c r="D5">
-        <v>-2082.5370326981852</v>
+        <v>1194.1224886230159</v>
       </c>
       <c r="E5">
-        <v>-2017.082823868747</v>
+        <v>1364.753975853147</v>
       </c>
       <c r="F5">
-        <v>-1868.770347529424</v>
+        <v>1893.6054901101711</v>
       </c>
       <c r="G5">
-        <v>-1790.5540269052999</v>
+        <v>2183.7406116196271</v>
       </c>
       <c r="H5">
-        <v>-2038.013776613589</v>
+        <v>1312.060850677821</v>
       </c>
       <c r="I5">
-        <v>-1916.3229788538099</v>
+        <v>1684.2818714213461</v>
       </c>
       <c r="J5">
-        <v>-1819.2408681993061</v>
+        <v>2172.4626697447761</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -563,31 +567,31 @@
         <v>891</v>
       </c>
       <c r="B6">
-        <v>-2262.6123017663999</v>
+        <v>727.48620799660614</v>
       </c>
       <c r="C6">
-        <v>-2171.2475690765132</v>
+        <v>969.81542960986974</v>
       </c>
       <c r="D6">
-        <v>-2078.2361023036742</v>
+        <v>1198.059296306373</v>
       </c>
       <c r="E6">
-        <v>-2014.9333059640919</v>
+        <v>1364.6234330424491</v>
       </c>
       <c r="F6">
-        <v>-1868.864717663866</v>
+        <v>1885.6014808469431</v>
       </c>
       <c r="G6">
-        <v>-1788.4450001773751</v>
+        <v>2190.353896694668</v>
       </c>
       <c r="H6">
-        <v>-2035.8900503782049</v>
+        <v>1312.1548944344761</v>
       </c>
       <c r="I6">
-        <v>-1914.5168164810079</v>
+        <v>1679.190497831725</v>
       </c>
       <c r="J6">
-        <v>-1817.2086227286291</v>
+        <v>2172.7148632368949</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -595,31 +599,31 @@
         <v>544</v>
       </c>
       <c r="B7">
-        <v>-6551.6122095681549</v>
+        <v>769.82820238677232</v>
       </c>
       <c r="C7">
-        <v>-6469.4052874889794</v>
+        <v>1141.897758844543</v>
       </c>
       <c r="D7">
-        <v>-6468.0982209709127</v>
+        <v>1224.3494611251199</v>
       </c>
       <c r="E7">
-        <v>-6439.0780281961706</v>
+        <v>1354.059346617207</v>
       </c>
       <c r="F7">
-        <v>-6347.0599784346095</v>
+        <v>2028.2934715258809</v>
       </c>
       <c r="G7">
-        <v>-6368.8561508561061</v>
+        <v>2053.78059009768</v>
       </c>
       <c r="H7">
-        <v>-6415.2635708096932</v>
+        <v>1402.899472749031</v>
       </c>
       <c r="I7">
-        <v>-6377.0959384846328</v>
+        <v>1687.0014093979489</v>
       </c>
       <c r="J7">
-        <v>-6344.5658647282107</v>
+        <v>1837.8902872558131</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -627,31 +631,31 @@
         <v>954</v>
       </c>
       <c r="B8">
-        <v>-1958.678671965894</v>
+        <v>601.76948937211046</v>
       </c>
       <c r="C8">
-        <v>-1786.719396762715</v>
+        <v>1053.346791962711</v>
       </c>
       <c r="D8">
-        <v>-1761.964387139494</v>
+        <v>1100.808538775786</v>
       </c>
       <c r="E8">
-        <v>-1724.882266690377</v>
+        <v>1195.527088909766</v>
       </c>
       <c r="F8">
-        <v>-1527.090503029239</v>
+        <v>1840.572857126931</v>
       </c>
       <c r="G8">
-        <v>-1406.490019018451</v>
+        <v>2268.568279137663</v>
       </c>
       <c r="H8">
-        <v>-1660.1801695129111</v>
+        <v>1365.912228901816</v>
       </c>
       <c r="I8">
-        <v>-1519.820977940496</v>
+        <v>1856.157076284263</v>
       </c>
       <c r="J8">
-        <v>-1444.333153095658</v>
+        <v>2217.3376495289549</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -659,31 +663,31 @@
         <v>995</v>
       </c>
       <c r="B9">
-        <v>434.50477240356469</v>
+        <v>659.31139550813327</v>
       </c>
       <c r="C9">
-        <v>819.56824002605595</v>
+        <v>1106.7716971237201</v>
       </c>
       <c r="D9">
-        <v>825.94511845820909</v>
+        <v>1111.909141329902</v>
       </c>
       <c r="E9">
-        <v>900.8663032861856</v>
+        <v>1200.841029931624</v>
       </c>
       <c r="F9">
-        <v>1405.3744788451049</v>
+        <v>1854.3886901991871</v>
       </c>
       <c r="G9">
-        <v>1686.44358301221</v>
+        <v>2189.770892676263</v>
       </c>
       <c r="H9">
-        <v>1030.755675719525</v>
+        <v>1345.971836919538</v>
       </c>
       <c r="I9">
-        <v>1371.005031423048</v>
+        <v>1812.2075033031431</v>
       </c>
       <c r="J9">
-        <v>1716.1688458574331</v>
+        <v>2218.8278130084891</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -691,31 +695,31 @@
         <v>361</v>
       </c>
       <c r="B10">
-        <v>-2720.5930593377839</v>
+        <v>627.00780413044868</v>
       </c>
       <c r="C10">
-        <v>-2577.9278272703318</v>
+        <v>1047.2604994228871</v>
       </c>
       <c r="D10">
-        <v>-2541.9272631811082</v>
+        <v>1128.6985827713841</v>
       </c>
       <c r="E10">
-        <v>-2518.7928632163739</v>
+        <v>1198.1533474416331</v>
       </c>
       <c r="F10">
-        <v>-2336.4576528612961</v>
+        <v>1947.121529991399</v>
       </c>
       <c r="G10">
-        <v>-2255.2029652460492</v>
+        <v>2294.539380276643</v>
       </c>
       <c r="H10">
-        <v>-2494.8565031160442</v>
+        <v>1264.9761055168981</v>
       </c>
       <c r="I10">
-        <v>-2363.6442931328979</v>
+        <v>1820.813528115747</v>
       </c>
       <c r="J10">
-        <v>-2306.6481178944869</v>
+        <v>2171.4292223329562</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -723,31 +727,31 @@
         <v>673</v>
       </c>
       <c r="B11">
-        <v>10.514811033943809</v>
+        <v>659.69306732134021</v>
       </c>
       <c r="C11">
-        <v>293.5915787813193</v>
+        <v>1075.349870428664</v>
       </c>
       <c r="D11">
-        <v>316.17676181933763</v>
+        <v>1104.767238253477</v>
       </c>
       <c r="E11">
-        <v>398.93496678572399</v>
+        <v>1224.045679424436</v>
       </c>
       <c r="F11">
-        <v>782.92597392010919</v>
+        <v>1849.0116795868171</v>
       </c>
       <c r="G11">
-        <v>966.60669116992335</v>
+        <v>2175.3914408625128</v>
       </c>
       <c r="H11">
-        <v>566.58921990779845</v>
+        <v>1486.8499799821429</v>
       </c>
       <c r="I11">
-        <v>680.50450678821562</v>
+        <v>1660.8624753434719</v>
       </c>
       <c r="J11">
-        <v>1022.20323455581</v>
+        <v>2264.0285687971391</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -755,31 +759,31 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>414.93542964576449</v>
+        <v>630.24612004376252</v>
       </c>
       <c r="C12">
-        <v>812.69350374082046</v>
+        <v>1092.750146126247</v>
       </c>
       <c r="D12">
-        <v>797.18176908386272</v>
+        <v>1076.117052370693</v>
       </c>
       <c r="E12">
-        <v>891.70891868919136</v>
+        <v>1181.5650157104251</v>
       </c>
       <c r="F12">
-        <v>1493.4935361831019</v>
+        <v>1980.573025680992</v>
       </c>
       <c r="G12">
-        <v>1702.6271864147141</v>
+        <v>2224.7565895437019</v>
       </c>
       <c r="H12">
-        <v>1014.3383871255199</v>
+        <v>1329.8836045018129</v>
       </c>
       <c r="I12">
-        <v>1378.2907588701239</v>
+        <v>1829.168037116553</v>
       </c>
       <c r="J12">
-        <v>1641.9865126725831</v>
+        <v>2154.9404089058089</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -787,31 +791,31 @@
         <v>399</v>
       </c>
       <c r="B13">
-        <v>-2686.6426332677711</v>
+        <v>678.54405076035368</v>
       </c>
       <c r="C13">
-        <v>-2543.093501259274</v>
+        <v>1114.6265488685531</v>
       </c>
       <c r="D13">
-        <v>-2528.4774092364542</v>
+        <v>1141.725581212967</v>
       </c>
       <c r="E13">
-        <v>-2489.3386006131118</v>
+        <v>1259.5027817554089</v>
       </c>
       <c r="F13">
-        <v>-2316.1783970752181</v>
+        <v>1829.879596135085</v>
       </c>
       <c r="G13">
-        <v>-2226.0432423859688</v>
+        <v>2193.0248710063761</v>
       </c>
       <c r="H13">
-        <v>-2412.7167995351519</v>
+        <v>1477.7262763584049</v>
       </c>
       <c r="I13">
-        <v>-2331.755489034656</v>
+        <v>1764.1913537615669</v>
       </c>
       <c r="J13">
-        <v>-2288.034779862237</v>
+        <v>2040.7789401412799</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -819,31 +823,31 @@
         <v>417</v>
       </c>
       <c r="B14">
-        <v>507.12048546167063</v>
+        <v>746.72823774641188</v>
       </c>
       <c r="C14">
-        <v>770.99470629788925</v>
+        <v>1049.718336925567</v>
       </c>
       <c r="D14">
-        <v>849.79231477922224</v>
+        <v>1139.960733741274</v>
       </c>
       <c r="E14">
-        <v>973.51442135351317</v>
+        <v>1279.5647110129551</v>
       </c>
       <c r="F14">
-        <v>1483.867396904426</v>
+        <v>1937.94032635499</v>
       </c>
       <c r="G14">
-        <v>1478.3364801715099</v>
+        <v>1929.108357837333</v>
       </c>
       <c r="H14">
-        <v>1012.918654443029</v>
+        <v>1329.2650061201671</v>
       </c>
       <c r="I14">
-        <v>1449.234435624795</v>
+        <v>1893.6988609522759</v>
       </c>
       <c r="J14">
-        <v>1707.041294186082</v>
+        <v>2194.015429309025</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -851,31 +855,31 @@
         <v>631</v>
       </c>
       <c r="B15">
-        <v>-2747.8309742215788</v>
+        <v>618.2064921293636</v>
       </c>
       <c r="C15">
-        <v>-2594.8941395260208</v>
+        <v>1079.941971334448</v>
       </c>
       <c r="D15">
-        <v>-2602.0649019720272</v>
+        <v>1046.116714061639</v>
       </c>
       <c r="E15">
-        <v>-2550.5073368964449</v>
+        <v>1204.826255390584</v>
       </c>
       <c r="F15">
-        <v>-2372.1622167868518</v>
+        <v>1912.506845830939</v>
       </c>
       <c r="G15">
-        <v>-2295.2952312068119</v>
+        <v>2221.937321554587</v>
       </c>
       <c r="H15">
-        <v>-2500.1196976992828</v>
+        <v>1369.695327180596</v>
       </c>
       <c r="I15">
-        <v>-2381.5522085522348</v>
+        <v>1862.4492621891511</v>
       </c>
       <c r="J15">
-        <v>-2331.50117180198</v>
+        <v>2184.3198103286909</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -883,31 +887,31 @@
         <v>648</v>
       </c>
       <c r="B16">
-        <v>526.04685714099492</v>
+        <v>773.32072539356568</v>
       </c>
       <c r="C16">
-        <v>841.73454876364553</v>
+        <v>1137.2098976178529</v>
       </c>
       <c r="D16">
-        <v>888.18010029245147</v>
+        <v>1189.3685781236491</v>
       </c>
       <c r="E16">
-        <v>945.10495035290262</v>
+        <v>1252.834581810429</v>
       </c>
       <c r="F16">
-        <v>1385.358238517367</v>
+        <v>1797.360519061948</v>
       </c>
       <c r="G16">
-        <v>1644.616467018401</v>
+        <v>2119.1902140359862</v>
       </c>
       <c r="H16">
-        <v>1077.2151547316589</v>
+        <v>1409.055074799865</v>
       </c>
       <c r="I16">
-        <v>1303.152720286419</v>
+        <v>1686.2201009230421</v>
       </c>
       <c r="J16">
-        <v>1657.36279229006</v>
+        <v>2135.4403082336548</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -915,31 +919,31 @@
         <v>714</v>
       </c>
       <c r="B17">
-        <v>690.20668207866595</v>
+        <v>698.68425749396522</v>
       </c>
       <c r="C17">
-        <v>1082.923367457415</v>
+        <v>1093.599969175594</v>
       </c>
       <c r="D17">
-        <v>1076.745509269464</v>
+        <v>1087.039330417304</v>
       </c>
       <c r="E17">
-        <v>1200.1175481417461</v>
+        <v>1211.612315828417</v>
       </c>
       <c r="F17">
-        <v>1834.6137336404381</v>
+        <v>1853.2416644769789</v>
       </c>
       <c r="G17">
-        <v>2256.4358874266932</v>
+        <v>2276.787120758449</v>
       </c>
       <c r="H17">
-        <v>1294.107220724251</v>
+        <v>1305.4363627040871</v>
       </c>
       <c r="I17">
-        <v>1821.535579178709</v>
+        <v>1840.7393937010199</v>
       </c>
       <c r="J17">
-        <v>2113.256578697562</v>
+        <v>2132.8595854441801</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -947,31 +951,31 @@
         <v>390</v>
       </c>
       <c r="B18">
-        <v>324.86051981927989</v>
+        <v>666.61553820540189</v>
       </c>
       <c r="C18">
-        <v>671.74566537249552</v>
+        <v>1099.602393529982</v>
       </c>
       <c r="D18">
-        <v>676.41313264295331</v>
+        <v>1105.139310206979</v>
       </c>
       <c r="E18">
-        <v>767.24203918192256</v>
+        <v>1215.572111724136</v>
       </c>
       <c r="F18">
-        <v>1183.079729187039</v>
+        <v>1799.1830667385959</v>
       </c>
       <c r="G18">
-        <v>1450.792504394853</v>
+        <v>2163.3374303844348</v>
       </c>
       <c r="H18">
-        <v>906.21821303438242</v>
+        <v>1397.17566476191</v>
       </c>
       <c r="I18">
-        <v>1190.163155184408</v>
+        <v>1799.656682948402</v>
       </c>
       <c r="J18">
-        <v>1518.85775879213</v>
+        <v>2253.7178015001559</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -979,31 +983,31 @@
         <v>615</v>
       </c>
       <c r="B19">
-        <v>451.14481597798101</v>
+        <v>680.81576322756132</v>
       </c>
       <c r="C19">
-        <v>776.83711430411802</v>
+        <v>1057.131974757182</v>
       </c>
       <c r="D19">
-        <v>789.03213398232822</v>
+        <v>1071.355370281341</v>
       </c>
       <c r="E19">
-        <v>910.40066692335427</v>
+        <v>1210.277523010596</v>
       </c>
       <c r="F19">
-        <v>1383.0946638023711</v>
+        <v>1835.8274763760951</v>
       </c>
       <c r="G19">
-        <v>1695.801969844998</v>
+        <v>2221.8513438541031</v>
       </c>
       <c r="H19">
-        <v>1035.6240063296079</v>
+        <v>1363.281181808343</v>
       </c>
       <c r="I19">
-        <v>1384.9758198327791</v>
+        <v>1831.579330020526</v>
       </c>
       <c r="J19">
-        <v>1702.3912807744409</v>
+        <v>2227.8800366642508</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1011,31 +1015,31 @@
         <v>566</v>
       </c>
       <c r="B20">
-        <v>-153.49416236519829</v>
+        <v>686.22692989802783</v>
       </c>
       <c r="C20">
-        <v>140.26571487825029</v>
+        <v>1164.491991549063</v>
       </c>
       <c r="D20">
-        <v>130.67467276764091</v>
+        <v>1152.688145251781</v>
       </c>
       <c r="E20">
-        <v>198.77370004835899</v>
+        <v>1248.9305307751929</v>
       </c>
       <c r="F20">
-        <v>516.25167191356479</v>
+        <v>1768.7293364646689</v>
       </c>
       <c r="G20">
-        <v>671.40496719657597</v>
+        <v>2033.7750982173709</v>
       </c>
       <c r="H20">
-        <v>373.24680232114412</v>
+        <v>1529.277926070921</v>
       </c>
       <c r="I20">
-        <v>509.08988206718408</v>
+        <v>1742.6286896420499</v>
       </c>
       <c r="J20">
-        <v>747.85479721961883</v>
+        <v>2173.2513521309229</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1043,31 +1047,31 @@
         <v>401</v>
       </c>
       <c r="B21">
-        <v>494.08042443659832</v>
+        <v>628.49074600172082</v>
       </c>
       <c r="C21">
-        <v>928.44249728577688</v>
+        <v>1110.3258114924711</v>
       </c>
       <c r="D21">
-        <v>893.8954671252219</v>
+        <v>1074.2277143850331</v>
       </c>
       <c r="E21">
-        <v>1007.0306062944341</v>
+        <v>1196.650083907075</v>
       </c>
       <c r="F21">
-        <v>1513.2492037022521</v>
+        <v>1802.019343079696</v>
       </c>
       <c r="G21">
-        <v>1837.5893590880139</v>
+        <v>2169.847844735626</v>
       </c>
       <c r="H21">
-        <v>1188.487626162778</v>
+        <v>1405.0118279655251</v>
       </c>
       <c r="I21">
-        <v>1602.3351772566771</v>
+        <v>1901.481927766285</v>
       </c>
       <c r="J21">
-        <v>1875.889429650211</v>
+        <v>2211.944700666571</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1075,31 +1079,31 @@
         <v>731</v>
       </c>
       <c r="B22">
-        <v>-962.26747051724465</v>
+        <v>598.08730931385651</v>
       </c>
       <c r="C22">
-        <v>-723.17534816828652</v>
+        <v>1104.745966272583</v>
       </c>
       <c r="D22">
-        <v>-735.26101423095668</v>
+        <v>1069.954334642026</v>
       </c>
       <c r="E22">
-        <v>-657.72102917712482</v>
+        <v>1222.123447742654</v>
       </c>
       <c r="F22">
-        <v>-403.49569098210441</v>
+        <v>1874.214449152636</v>
       </c>
       <c r="G22">
-        <v>-267.21444614706547</v>
+        <v>2183.2065963002292</v>
       </c>
       <c r="H22">
-        <v>-595.35989627793663</v>
+        <v>1347.297322727866</v>
       </c>
       <c r="I22">
-        <v>-396.89257071705617</v>
+        <v>1878.7780258922039</v>
       </c>
       <c r="J22">
-        <v>-268.89499164662033</v>
+        <v>2221.5925479559451</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1107,31 +1111,31 @@
         <v>596</v>
       </c>
       <c r="B23">
-        <v>512.85099466885947</v>
+        <v>650.3207186808246</v>
       </c>
       <c r="C23">
-        <v>915.94926052565791</v>
+        <v>1094.881973346651</v>
       </c>
       <c r="D23">
-        <v>898.48670496531213</v>
+        <v>1076.8290521687361</v>
       </c>
       <c r="E23">
-        <v>1027.014588912805</v>
+        <v>1215.589335049533</v>
       </c>
       <c r="F23">
-        <v>1548.451723487347</v>
+        <v>1844.570052952171</v>
       </c>
       <c r="G23">
-        <v>1849.6213099102299</v>
+        <v>2187.209381783659</v>
       </c>
       <c r="H23">
-        <v>1144.8999013523901</v>
+        <v>1349.8976337446129</v>
       </c>
       <c r="I23">
-        <v>1558.8703215254991</v>
+        <v>1851.863341986435</v>
       </c>
       <c r="J23">
-        <v>1888.024315186108</v>
+        <v>2228.8385102873781</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1139,31 +1143,31 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>676.87604623537402</v>
+        <v>685.34369998266766</v>
       </c>
       <c r="C24">
-        <v>1077.3057552023311</v>
+        <v>1088.269119803284</v>
       </c>
       <c r="D24">
-        <v>1101.447865345287</v>
+        <v>1112.854985466875</v>
       </c>
       <c r="E24">
-        <v>1199.4467229000011</v>
+        <v>1210.8203641616631</v>
       </c>
       <c r="F24">
-        <v>1713.8400051721351</v>
+        <v>1731.0086529229791</v>
       </c>
       <c r="G24">
-        <v>2258.743522705528</v>
+        <v>2283.3928818604591</v>
       </c>
       <c r="H24">
-        <v>1522.2381483923009</v>
+        <v>1537.6321022248951</v>
       </c>
       <c r="I24">
-        <v>1690.3942625501261</v>
+        <v>1705.8961371431301</v>
       </c>
       <c r="J24">
-        <v>2122.2482400816421</v>
+        <v>2144.7820564340432</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1171,31 +1175,31 @@
         <v>745</v>
       </c>
       <c r="B25">
-        <v>196.7265873885078</v>
+        <v>666.74440988367178</v>
       </c>
       <c r="C25">
-        <v>532.50675010350449</v>
+        <v>1116.9813749172081</v>
       </c>
       <c r="D25">
-        <v>541.44253128120204</v>
+        <v>1126.161757493293</v>
       </c>
       <c r="E25">
-        <v>633.63961284559934</v>
+        <v>1244.59077933557</v>
       </c>
       <c r="F25">
-        <v>1059.44356447513</v>
+        <v>1924.0578702709861</v>
       </c>
       <c r="G25">
-        <v>1232.216569458792</v>
+        <v>2152.4060685596592</v>
       </c>
       <c r="H25">
-        <v>683.79850139550899</v>
+        <v>1313.082213387074</v>
       </c>
       <c r="I25">
-        <v>994.01147826486124</v>
+        <v>1814.272064163036</v>
       </c>
       <c r="J25">
-        <v>1219.3447337697769</v>
+        <v>2141.7034619895071</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1203,31 +1207,31 @@
         <v>827</v>
       </c>
       <c r="B26">
-        <v>-1215.7027112908299</v>
+        <v>661.37966841118555</v>
       </c>
       <c r="C26">
-        <v>-1004.333960542319</v>
+        <v>1112.732366409426</v>
       </c>
       <c r="D26">
-        <v>-1006.637507233543</v>
+        <v>1101.020334305952</v>
       </c>
       <c r="E26">
-        <v>-949.97111017200768</v>
+        <v>1216.1672746091481</v>
       </c>
       <c r="F26">
-        <v>-713.92326172261573</v>
+        <v>1850.3760439127759</v>
       </c>
       <c r="G26">
-        <v>-573.96424349314236</v>
+        <v>2204.8897601134781</v>
       </c>
       <c r="H26">
-        <v>-885.64421817030689</v>
+        <v>1349.4353259558691</v>
       </c>
       <c r="I26">
-        <v>-671.59802413794512</v>
+        <v>1962.6191919371929</v>
       </c>
       <c r="J26">
-        <v>-649.32307561634184</v>
+        <v>2041.3800343449741</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1235,31 +1239,31 @@
         <v>708</v>
       </c>
       <c r="B27">
-        <v>455.04577682176688</v>
+        <v>585.21529055138865</v>
       </c>
       <c r="C27">
-        <v>835.42830290883626</v>
+        <v>1013.663066274395</v>
       </c>
       <c r="D27">
-        <v>931.2274594119832</v>
+        <v>1115.027533977543</v>
       </c>
       <c r="E27">
-        <v>1023.259792934939</v>
+        <v>1222.3323836382949</v>
       </c>
       <c r="F27">
-        <v>1592.6070076194851</v>
+        <v>1888.0838379111831</v>
       </c>
       <c r="G27">
-        <v>1815.6594438696261</v>
+        <v>2136.2104088839742</v>
       </c>
       <c r="H27">
-        <v>1234.278658043771</v>
+        <v>1458.4834448474289</v>
       </c>
       <c r="I27">
-        <v>1572.523113786214</v>
+        <v>1867.542419041295</v>
       </c>
       <c r="J27">
-        <v>1890.3999052161121</v>
+        <v>2213.441614874499</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1267,31 +1271,31 @@
         <v>514</v>
       </c>
       <c r="B28">
-        <v>-164.7127811736741</v>
+        <v>667.74403099704557</v>
       </c>
       <c r="C28">
-        <v>130.63478792811591</v>
+        <v>1140.7025351798129</v>
       </c>
       <c r="D28">
-        <v>128.9521583222629</v>
+        <v>1134.176859685997</v>
       </c>
       <c r="E28">
-        <v>192.6268852142494</v>
+        <v>1229.8335284512891</v>
       </c>
       <c r="F28">
-        <v>561.62181573006569</v>
+        <v>1898.605088947379</v>
       </c>
       <c r="G28">
-        <v>717.91559136862566</v>
+        <v>2136.2984153419739</v>
       </c>
       <c r="H28">
-        <v>295.23080003927868</v>
+        <v>1393.432704307424</v>
       </c>
       <c r="I28">
-        <v>501.71420960424359</v>
+        <v>1777.4010312817111</v>
       </c>
       <c r="J28">
-        <v>698.38021252845169</v>
+        <v>2121.8058058073739</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1299,31 +1303,31 @@
         <v>113</v>
       </c>
       <c r="B29">
-        <v>341.28256938010952</v>
+        <v>685.36629741966919</v>
       </c>
       <c r="C29">
-        <v>664.19166966052239</v>
+        <v>1083.5488130936769</v>
       </c>
       <c r="D29">
-        <v>695.2059412385471</v>
+        <v>1121.468006419422</v>
       </c>
       <c r="E29">
-        <v>747.91401961232191</v>
+        <v>1184.156412157814</v>
       </c>
       <c r="F29">
-        <v>1164.8060910349241</v>
+        <v>1775.1157363776649</v>
       </c>
       <c r="G29">
-        <v>1447.039333546908</v>
+        <v>2154.753012805998</v>
       </c>
       <c r="H29">
-        <v>911.23744868001472</v>
+        <v>1396.505943697626</v>
       </c>
       <c r="I29">
-        <v>1240.075562406799</v>
+        <v>1869.026005967318</v>
       </c>
       <c r="J29">
-        <v>1506.7506031594501</v>
+        <v>2230.0597720608112</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1331,31 +1335,31 @@
         <v>541</v>
       </c>
       <c r="B30">
-        <v>648.85697753382181</v>
+        <v>682.50585072003128</v>
       </c>
       <c r="C30">
-        <v>1005.65819998798</v>
+        <v>1046.762024494077</v>
       </c>
       <c r="D30">
-        <v>1060.9722129405479</v>
+        <v>1102.109995574303</v>
       </c>
       <c r="E30">
-        <v>1125.2264524667589</v>
+        <v>1169.0287664518501</v>
       </c>
       <c r="F30">
-        <v>1917.1006773423021</v>
+        <v>1998.6421987454351</v>
       </c>
       <c r="G30">
-        <v>2127.722272385904</v>
+        <v>2213.3779518903862</v>
       </c>
       <c r="H30">
-        <v>1265.6039044732131</v>
+        <v>1311.2093558584791</v>
       </c>
       <c r="I30">
-        <v>1705.674260635546</v>
+        <v>1780.090922427167</v>
       </c>
       <c r="J30">
-        <v>2112.604351458232</v>
+        <v>2196.2729338382728</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1363,31 +1367,31 @@
         <v>675</v>
       </c>
       <c r="B31">
-        <v>-166.8814038850862</v>
+        <v>665.38292112806084</v>
       </c>
       <c r="C31">
-        <v>131.4743855204147</v>
+        <v>1133.510042308131</v>
       </c>
       <c r="D31">
-        <v>130.763622779998</v>
+        <v>1130.3426647078829</v>
       </c>
       <c r="E31">
-        <v>191.09418985206449</v>
+        <v>1223.0624622786249</v>
       </c>
       <c r="F31">
-        <v>565.53332317467653</v>
+        <v>1916.577548848961</v>
       </c>
       <c r="G31">
-        <v>699.5195656411554</v>
+        <v>2116.961891411233</v>
       </c>
       <c r="H31">
-        <v>287.17935813403642</v>
+        <v>1372.054134357531</v>
       </c>
       <c r="I31">
-        <v>508.61296186837569</v>
+        <v>1798.314391432431</v>
       </c>
       <c r="J31">
-        <v>706.63510098443408</v>
+        <v>2143.793943527146</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1395,31 +1399,31 @@
         <v>348</v>
       </c>
       <c r="B32">
-        <v>-2392.4197624596841</v>
+        <v>834.10394873586415</v>
       </c>
       <c r="C32">
-        <v>-2677.7985723057659</v>
+        <v>1073.831018710569</v>
       </c>
       <c r="D32">
-        <v>4318.1461680451766</v>
+        <v>1225.559036513014</v>
       </c>
       <c r="E32">
-        <v>-27922.527407134781</v>
+        <v>1320.286496816545</v>
       </c>
       <c r="F32">
-        <v>6228.7945339948328</v>
+        <v>1908.63232033075</v>
       </c>
       <c r="G32">
-        <v>4342.2163652823274</v>
+        <v>1857.0201965871099</v>
       </c>
       <c r="H32">
-        <v>-2035.0800457322739</v>
+        <v>1283.281761938013</v>
       </c>
       <c r="I32">
-        <v>16523.64167290317</v>
+        <v>2058.18943251165</v>
       </c>
       <c r="J32">
-        <v>3342.362908281013</v>
+        <v>1939.0957878564859</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1427,31 +1431,31 @@
         <v>686</v>
       </c>
       <c r="B33">
-        <v>-2330.417373550958</v>
+        <v>637.00851582732446</v>
       </c>
       <c r="C33">
-        <v>-2195.6342316671812</v>
+        <v>1005.477266394417</v>
       </c>
       <c r="D33">
-        <v>-2165.6488899905148</v>
+        <v>1074.6031123771861</v>
       </c>
       <c r="E33">
-        <v>-2122.281539478608</v>
+        <v>1191.3988487470781</v>
       </c>
       <c r="F33">
-        <v>-1923.6561532447549</v>
+        <v>1953.588782407192</v>
       </c>
       <c r="G33">
-        <v>-1821.516970319853</v>
+        <v>2303.105728744109</v>
       </c>
       <c r="H33">
-        <v>-2066.8085694918159</v>
+        <v>1378.074951215292</v>
       </c>
       <c r="I33">
-        <v>-1926.527703494231</v>
+        <v>1944.3058119137841</v>
       </c>
       <c r="J33">
-        <v>-1920.790221505368</v>
+        <v>2012.436982373617</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1459,31 +1463,31 @@
         <v>172</v>
       </c>
       <c r="B34">
-        <v>318.84202921891972</v>
+        <v>653.17133051797532</v>
       </c>
       <c r="C34">
-        <v>677.94668282695898</v>
+        <v>1111.2745650945189</v>
       </c>
       <c r="D34">
-        <v>700.40991785845517</v>
+        <v>1138.47839901569</v>
       </c>
       <c r="E34">
-        <v>774.30172199770732</v>
+        <v>1227.7634123525099</v>
       </c>
       <c r="F34">
-        <v>1175.37649631355</v>
+        <v>1781.8546387819219</v>
       </c>
       <c r="G34">
-        <v>1411.067256001076</v>
+        <v>2094.5002202003079</v>
       </c>
       <c r="H34">
-        <v>915.59118570808209</v>
+        <v>1411.273720031073</v>
       </c>
       <c r="I34">
-        <v>1215.963982894611</v>
+        <v>1828.2853144114879</v>
       </c>
       <c r="J34">
-        <v>1528.2888006717851</v>
+        <v>2253.398399594515</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1491,31 +1495,31 @@
         <v>259</v>
       </c>
       <c r="B35">
-        <v>10.00068223172844</v>
+        <v>649.40077687847258</v>
       </c>
       <c r="C35">
-        <v>307.2385245007448</v>
+        <v>1082.180502908971</v>
       </c>
       <c r="D35">
-        <v>333.6704772248155</v>
+        <v>1115.391443315671</v>
       </c>
       <c r="E35">
-        <v>406.40333149742668</v>
+        <v>1217.771022646368</v>
       </c>
       <c r="F35">
-        <v>752.13837103740275</v>
+        <v>1822.2014929018419</v>
       </c>
       <c r="G35">
-        <v>993.91866866435043</v>
+        <v>2205.5949176946469</v>
       </c>
       <c r="H35">
-        <v>500.18305666813632</v>
+        <v>1357.001867463111</v>
       </c>
       <c r="I35">
-        <v>771.30097986480348</v>
+        <v>1841.3239832538829</v>
       </c>
       <c r="J35">
-        <v>991.21865119641825</v>
+        <v>2209.133992937032</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1523,31 +1527,31 @@
         <v>216</v>
       </c>
       <c r="B36">
-        <v>377.37071746213331</v>
+        <v>730.70198628783135</v>
       </c>
       <c r="C36">
-        <v>657.47019972345072</v>
+        <v>1085.981470691604</v>
       </c>
       <c r="D36">
-        <v>767.28737798401494</v>
+        <v>1218.750253592124</v>
       </c>
       <c r="E36">
-        <v>845.88967793543054</v>
+        <v>1311.3042185086449</v>
       </c>
       <c r="F36">
-        <v>1363.17683160449</v>
+        <v>1990.114432587518</v>
       </c>
       <c r="G36">
-        <v>1403.2608733913189</v>
+        <v>2037.9237800883429</v>
       </c>
       <c r="H36">
-        <v>974.82612411003026</v>
+        <v>1474.154922275774</v>
       </c>
       <c r="I36">
-        <v>1087.0416305513611</v>
+        <v>1617.285293216728</v>
       </c>
       <c r="J36">
-        <v>1394.9446154934731</v>
+        <v>2033.783642751433</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1555,31 +1559,31 @@
         <v>907</v>
       </c>
       <c r="B37">
-        <v>648.40822892017479</v>
+        <v>681.98910390946185</v>
       </c>
       <c r="C37">
-        <v>1005.216394773765</v>
+        <v>1046.2431979407279</v>
       </c>
       <c r="D37">
-        <v>1060.524727423295</v>
+        <v>1101.5846119357309</v>
       </c>
       <c r="E37">
-        <v>1124.8001447687429</v>
+        <v>1168.520690063091</v>
       </c>
       <c r="F37">
-        <v>1919.4625544947651</v>
+        <v>2001.2479054487919</v>
       </c>
       <c r="G37">
-        <v>2129.3131336324718</v>
+        <v>2214.9966482239238</v>
       </c>
       <c r="H37">
-        <v>1265.193258797018</v>
+        <v>1310.7084395871191</v>
       </c>
       <c r="I37">
-        <v>1702.679795532209</v>
+        <v>1776.9650325590831</v>
       </c>
       <c r="J37">
-        <v>2113.9361450673932</v>
+        <v>2197.7443703320669</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1587,31 +1591,31 @@
         <v>804</v>
       </c>
       <c r="B38">
-        <v>146.40934107996861</v>
+        <v>620.24101474078248</v>
       </c>
       <c r="C38">
-        <v>460.26388396167539</v>
+        <v>1043.746388215591</v>
       </c>
       <c r="D38">
-        <v>481.1628049882039</v>
+        <v>1068.095840312161</v>
       </c>
       <c r="E38">
-        <v>587.1593021525232</v>
+        <v>1211.286805604439</v>
       </c>
       <c r="F38">
-        <v>919.5283570446752</v>
+        <v>1714.564041700213</v>
       </c>
       <c r="G38">
-        <v>1322.7749208025341</v>
+        <v>2360.5404358304618</v>
       </c>
       <c r="H38">
-        <v>720.98149073715445</v>
+        <v>1387.5859861763349</v>
       </c>
       <c r="I38">
-        <v>994.31150128607965</v>
+        <v>1835.6545012973579</v>
       </c>
       <c r="J38">
-        <v>1264.3248293640349</v>
+        <v>2258.2849861226582</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1619,31 +1623,31 @@
         <v>826</v>
       </c>
       <c r="B39">
-        <v>-6743.662631617075</v>
+        <v>678.33939699045629</v>
       </c>
       <c r="C39">
-        <v>-6685.7921820126166</v>
+        <v>1013.991523763072</v>
       </c>
       <c r="D39">
-        <v>-6651.9496266163642</v>
+        <v>1155.698005176587</v>
       </c>
       <c r="E39">
-        <v>-6631.1209299974926</v>
+        <v>1259.816633724651</v>
       </c>
       <c r="F39">
-        <v>-6560.9502474757955</v>
+        <v>1842.807710103828</v>
       </c>
       <c r="G39">
-        <v>-6511.5012369133892</v>
+        <v>2191.6612471382382</v>
       </c>
       <c r="H39">
-        <v>-6598.2020409313318</v>
+        <v>1480.6249120794289</v>
       </c>
       <c r="I39">
-        <v>-6566.6372950888708</v>
+        <v>1784.4338711056951</v>
       </c>
       <c r="J39">
-        <v>-6558.043871775435</v>
+        <v>2092.626699918048</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1651,31 +1655,31 @@
         <v>246</v>
       </c>
       <c r="B40">
-        <v>603.90090046085766</v>
+        <v>680.70594868866897</v>
       </c>
       <c r="C40">
-        <v>1030.129230661908</v>
+        <v>1138.421019104914</v>
       </c>
       <c r="D40">
-        <v>1080.28754323872</v>
+        <v>1192.2958205616569</v>
       </c>
       <c r="E40">
-        <v>1190.025402032891</v>
+        <v>1304.9349589065889</v>
       </c>
       <c r="F40">
-        <v>1722.6766228284059</v>
+        <v>1881.540360123299</v>
       </c>
       <c r="G40">
-        <v>1899.364498549701</v>
+        <v>2071.4194828233908</v>
       </c>
       <c r="H40">
-        <v>1408.034894179591</v>
+        <v>1539.011196804458</v>
       </c>
       <c r="I40">
-        <v>1440.108540914066</v>
+        <v>1569.9370430808569</v>
       </c>
       <c r="J40">
-        <v>1946.5298003118401</v>
+        <v>2121.734169906159</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1683,31 +1687,31 @@
         <v>261</v>
       </c>
       <c r="B41">
-        <v>520.72411868665154</v>
+        <v>658.7331882344829</v>
       </c>
       <c r="C41">
-        <v>931.11863962518237</v>
+        <v>1111.904422739909</v>
       </c>
       <c r="D41">
-        <v>907.35633907680744</v>
+        <v>1087.16157930295</v>
       </c>
       <c r="E41">
-        <v>1035.486983949786</v>
+        <v>1225.6427759375631</v>
       </c>
       <c r="F41">
-        <v>1539.613226711062</v>
+        <v>1832.2247324124089</v>
       </c>
       <c r="G41">
-        <v>1827.6518572161169</v>
+        <v>2157.26392191165</v>
       </c>
       <c r="H41">
-        <v>1152.364289341514</v>
+        <v>1358.892295863159</v>
       </c>
       <c r="I41">
-        <v>1573.982067265174</v>
+        <v>1867.5432067141501</v>
       </c>
       <c r="J41">
-        <v>1867.133855905829</v>
+        <v>2200.633876883725</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1715,31 +1719,31 @@
         <v>264</v>
       </c>
       <c r="B42">
-        <v>35.894759881786193</v>
+        <v>672.89397312590029</v>
       </c>
       <c r="C42">
-        <v>339.00057868711821</v>
+        <v>1107.186529512275</v>
       </c>
       <c r="D42">
-        <v>339.75844990964151</v>
+        <v>1107.9207406956771</v>
       </c>
       <c r="E42">
-        <v>406.96943361378351</v>
+        <v>1201.067275876311</v>
       </c>
       <c r="F42">
-        <v>814.69928917908237</v>
+        <v>1905.771859561507</v>
       </c>
       <c r="G42">
-        <v>993.39765663296726</v>
+        <v>2168.5301460465762</v>
       </c>
       <c r="H42">
-        <v>521.09383406566667</v>
+        <v>1374.362474582535</v>
       </c>
       <c r="I42">
-        <v>835.45581409029478</v>
+        <v>1928.70031571253</v>
       </c>
       <c r="J42">
-        <v>900.48531252228747</v>
+        <v>2033.5666848866849</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1747,31 +1751,31 @@
         <v>886</v>
       </c>
       <c r="B43">
-        <v>-163.55786562593431</v>
+        <v>679.13984782333841</v>
       </c>
       <c r="C43">
-        <v>117.0322500394863</v>
+        <v>1122.291698499499</v>
       </c>
       <c r="D43">
-        <v>104.71631297787781</v>
+        <v>1101.5456673121639</v>
       </c>
       <c r="E43">
-        <v>188.87824755370301</v>
+        <v>1226.987773601287</v>
       </c>
       <c r="F43">
-        <v>496.01092056996202</v>
+        <v>1788.5744762609511</v>
       </c>
       <c r="G43">
-        <v>738.35983329999522</v>
+        <v>2210.127145970223</v>
       </c>
       <c r="H43">
-        <v>296.25825303770517</v>
+        <v>1397.3483391558229</v>
       </c>
       <c r="I43">
-        <v>531.72533163153457</v>
+        <v>1844.720606648297</v>
       </c>
       <c r="J43">
-        <v>684.20359646623092</v>
+        <v>2129.2644447284179</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1779,31 +1783,31 @@
         <v>569</v>
       </c>
       <c r="B44">
-        <v>-882.10268455152766</v>
+        <v>711.63886514418027</v>
       </c>
       <c r="C44">
-        <v>-688.77932230862575</v>
+        <v>1082.903157546338</v>
       </c>
       <c r="D44">
-        <v>-610.73074258003385</v>
+        <v>1216.633056469082</v>
       </c>
       <c r="E44">
-        <v>-580.74608575621016</v>
+        <v>1291.5152779345819</v>
       </c>
       <c r="F44">
-        <v>-332.52355064858682</v>
+        <v>1842.840244348198</v>
       </c>
       <c r="G44">
-        <v>-223.8339448112238</v>
+        <v>2142.4518267121762</v>
       </c>
       <c r="H44">
-        <v>-521.13167974264047</v>
+        <v>1372.8085586247289</v>
       </c>
       <c r="I44">
-        <v>-412.19005979100268</v>
+        <v>1623.2366289730201</v>
       </c>
       <c r="J44">
-        <v>-172.123946376492</v>
+        <v>2215.972384247691</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1811,31 +1815,31 @@
         <v>897</v>
       </c>
       <c r="B45">
-        <v>-141.66197367615729</v>
+        <v>692.7811640499101</v>
       </c>
       <c r="C45">
-        <v>158.14349447018299</v>
+        <v>1156.9763668098531</v>
       </c>
       <c r="D45">
-        <v>144.15193276156259</v>
+        <v>1136.6435166231049</v>
       </c>
       <c r="E45">
-        <v>225.13794089010159</v>
+        <v>1254.3445520301921</v>
       </c>
       <c r="F45">
-        <v>592.35027273015601</v>
+        <v>1916.0744684410131</v>
       </c>
       <c r="G45">
-        <v>730.99538771227094</v>
+        <v>2136.1065667770199</v>
       </c>
       <c r="H45">
-        <v>287.424434836111</v>
+        <v>1353.3814298433749</v>
       </c>
       <c r="I45">
-        <v>558.57440792582167</v>
+        <v>1854.0706728081229</v>
       </c>
       <c r="J45">
-        <v>639.02064102968484</v>
+        <v>1999.621262617407</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1843,31 +1847,31 @@
         <v>837</v>
       </c>
       <c r="B46">
-        <v>146.70337030339641</v>
+        <v>620.61455416129581</v>
       </c>
       <c r="C46">
-        <v>460.53176230586189</v>
+        <v>1044.3244706637381</v>
       </c>
       <c r="D46">
-        <v>478.00725804622613</v>
+        <v>1064.8712292261851</v>
       </c>
       <c r="E46">
-        <v>587.66813367035013</v>
+        <v>1212.468344447311</v>
       </c>
       <c r="F46">
-        <v>923.01778012335512</v>
+        <v>1721.381067018151</v>
       </c>
       <c r="G46">
-        <v>1318.290846347966</v>
+        <v>2346.4682940552079</v>
       </c>
       <c r="H46">
-        <v>720.30499678708691</v>
+        <v>1387.5157347958591</v>
       </c>
       <c r="I46">
-        <v>1000.036387988558</v>
+        <v>1847.9931066940089</v>
       </c>
       <c r="J46">
-        <v>1264.4322900496859</v>
+        <v>2254.3631989382411</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1875,31 +1879,31 @@
         <v>391</v>
       </c>
       <c r="B47">
-        <v>535.40360488173178</v>
+        <v>675.4427362102781</v>
       </c>
       <c r="C47">
-        <v>946.96411707475784</v>
+        <v>1129.183935943709</v>
       </c>
       <c r="D47">
-        <v>912.53155409932219</v>
+        <v>1092.323549625957</v>
       </c>
       <c r="E47">
-        <v>1016.209258931636</v>
+        <v>1204.7662118825831</v>
       </c>
       <c r="F47">
-        <v>1567.962905952294</v>
+        <v>1864.5178567460141</v>
       </c>
       <c r="G47">
-        <v>1830.030711158432</v>
+        <v>2160.9344202946331</v>
       </c>
       <c r="H47">
-        <v>1137.753741961066</v>
+        <v>1341.2259012921461</v>
       </c>
       <c r="I47">
-        <v>1511.422095445283</v>
+        <v>1792.475056284497</v>
       </c>
       <c r="J47">
-        <v>1901.1956258467919</v>
+        <v>2239.1303317201782</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1907,31 +1911,31 @@
         <v>872</v>
       </c>
       <c r="B48">
-        <v>693.67450619918611</v>
+        <v>702.19660502904367</v>
       </c>
       <c r="C48">
-        <v>1108.7520289042841</v>
+        <v>1120.073084598848</v>
       </c>
       <c r="D48">
-        <v>1136.2666556523279</v>
+        <v>1148.1084964901779</v>
       </c>
       <c r="E48">
-        <v>1241.443892616858</v>
+        <v>1253.2700215126899</v>
       </c>
       <c r="F48">
-        <v>1875.5699471558789</v>
+        <v>1893.6611065956399</v>
       </c>
       <c r="G48">
-        <v>2110.4914639458352</v>
+        <v>2130.6318210425638</v>
       </c>
       <c r="H48">
-        <v>1517.724543735324</v>
+        <v>1532.976675347935</v>
       </c>
       <c r="I48">
-        <v>1737.271155185907</v>
+        <v>1753.4221184542921</v>
       </c>
       <c r="J48">
-        <v>1946.793200646774</v>
+        <v>1965.6600709288091</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1939,31 +1943,31 @@
         <v>156</v>
       </c>
       <c r="B49">
-        <v>281.49235008546498</v>
+        <v>603.16021588054866</v>
       </c>
       <c r="C49">
-        <v>670.57036130540132</v>
+        <v>1103.5617204291079</v>
       </c>
       <c r="D49">
-        <v>675.75691517974656</v>
+        <v>1109.5116116569691</v>
       </c>
       <c r="E49">
-        <v>753.81230850266297</v>
+        <v>1204.16488616832</v>
       </c>
       <c r="F49">
-        <v>1173.75837281281</v>
+        <v>1797.160598643987</v>
       </c>
       <c r="G49">
-        <v>1459.0244843967739</v>
+        <v>2161.5966180425949</v>
       </c>
       <c r="H49">
-        <v>938.49193306622215</v>
+        <v>1449.3297918383939</v>
       </c>
       <c r="I49">
-        <v>1250.2308626281849</v>
+        <v>1887.5820785559581</v>
       </c>
       <c r="J49">
-        <v>1473.9980698010861</v>
+        <v>2183.9324787841242</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1971,31 +1975,31 @@
         <v>379</v>
       </c>
       <c r="B50">
-        <v>480.22448893250743</v>
+        <v>615.4303758122129</v>
       </c>
       <c r="C50">
-        <v>842.7821102861775</v>
+        <v>1020.415081124245</v>
       </c>
       <c r="D50">
-        <v>906.74827335539408</v>
+        <v>1087.1907903231311</v>
       </c>
       <c r="E50">
-        <v>1039.623955429661</v>
+        <v>1237.7551857611741</v>
       </c>
       <c r="F50">
-        <v>1543.8781943498459</v>
+        <v>1836.511376780991</v>
       </c>
       <c r="G50">
-        <v>1856.1788878120919</v>
+        <v>2191.4609310679712</v>
       </c>
       <c r="H50">
-        <v>1154.5938105796399</v>
+        <v>1362.085861752161</v>
       </c>
       <c r="I50">
-        <v>1564.50827702882</v>
+        <v>1863.2642077228161</v>
       </c>
       <c r="J50">
-        <v>1944.0765984964839</v>
+        <v>2285.8861896553021</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2003,31 +2007,31 @@
         <v>252</v>
       </c>
       <c r="B51">
-        <v>207.4893463324664</v>
+        <v>681.36800534776262</v>
       </c>
       <c r="C51">
-        <v>529.50534757677383</v>
+        <v>1107.2389845475329</v>
       </c>
       <c r="D51">
-        <v>529.59155624595974</v>
+        <v>1109.564000742962</v>
       </c>
       <c r="E51">
-        <v>614.78865535199259</v>
+        <v>1216.8532808278619</v>
       </c>
       <c r="F51">
-        <v>1064.8631812604069</v>
+        <v>1915.3380219058961</v>
       </c>
       <c r="G51">
-        <v>1241.835884468419</v>
+        <v>2151.0541642188741</v>
       </c>
       <c r="H51">
-        <v>745.18298275936581</v>
+        <v>1402.0049258012989</v>
       </c>
       <c r="I51">
-        <v>1040.7328765399859</v>
+        <v>1872.9609726533399</v>
       </c>
       <c r="J51">
-        <v>1162.0598311321789</v>
+        <v>2043.617643954469</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2035,31 +2039,31 @@
         <v>749</v>
       </c>
       <c r="B52">
-        <v>-4757.5370780375006</v>
+        <v>594.76707951938874</v>
       </c>
       <c r="C52">
-        <v>-4640.8437188552616</v>
+        <v>1064.6525073205721</v>
       </c>
       <c r="D52">
-        <v>-4636.321887938966</v>
+        <v>1084.566374876742</v>
       </c>
       <c r="E52">
-        <v>-4613.0110713261074</v>
+        <v>1183.550972741795</v>
       </c>
       <c r="F52">
-        <v>-4501.302642518257</v>
+        <v>1937.531562969197</v>
       </c>
       <c r="G52">
-        <v>-4437.2264818068843</v>
+        <v>2276.128887897095</v>
       </c>
       <c r="H52">
-        <v>-4600.5332330949605</v>
+        <v>1246.698012408217</v>
       </c>
       <c r="I52">
-        <v>-4506.4656938002954</v>
+        <v>1834.6243842569379</v>
       </c>
       <c r="J52">
-        <v>-4470.728493272487</v>
+        <v>2277.480218010056</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2067,31 +2071,31 @@
         <v>195</v>
       </c>
       <c r="B53">
-        <v>500.25298610697911</v>
+        <v>740.62531775180446</v>
       </c>
       <c r="C53">
-        <v>838.50721621549587</v>
+        <v>1140.6856799196801</v>
       </c>
       <c r="D53">
-        <v>891.66104920351665</v>
+        <v>1202.0207350632891</v>
       </c>
       <c r="E53">
-        <v>959.0358838916269</v>
+        <v>1277.7306637190229</v>
       </c>
       <c r="F53">
-        <v>1361.402299707609</v>
+        <v>1762.5523432084301</v>
       </c>
       <c r="G53">
-        <v>1624.7338252959439</v>
+        <v>2079.1409502258348</v>
       </c>
       <c r="H53">
-        <v>1122.6588346212261</v>
+        <v>1472.703053627615</v>
       </c>
       <c r="I53">
-        <v>1336.5198458120151</v>
+        <v>1727.6572124514671</v>
       </c>
       <c r="J53">
-        <v>1637.5991478476631</v>
+        <v>2096.8840440328509</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2099,31 +2103,31 @@
         <v>257</v>
       </c>
       <c r="B54">
-        <v>5539.4881110436336</v>
+        <v>588.66261971081292</v>
       </c>
       <c r="C54">
-        <v>8724.2229997622599</v>
+        <v>863.63455263093897</v>
       </c>
       <c r="D54">
-        <v>13204.213051809549</v>
+        <v>1124.6417037257811</v>
       </c>
       <c r="E54">
-        <v>4974.4616230808306</v>
+        <v>1219.671024783587</v>
       </c>
       <c r="F54">
-        <v>51465.360952786323</v>
+        <v>2104.297183357065</v>
       </c>
       <c r="G54">
-        <v>40549.970045872593</v>
+        <v>2503.4060001500461</v>
       </c>
       <c r="H54">
-        <v>18235.17379483968</v>
+        <v>1305.0481951606921</v>
       </c>
       <c r="I54">
-        <v>34511.58670850112</v>
+        <v>1836.5656514976511</v>
       </c>
       <c r="J54">
-        <v>25680.58394585174</v>
+        <v>1954.073068983427</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2131,31 +2135,31 @@
         <v>238</v>
       </c>
       <c r="B55">
-        <v>681.37863133315636</v>
+        <v>689.84829743605621</v>
       </c>
       <c r="C55">
-        <v>1086.3673306736359</v>
+        <v>1097.3746665242199</v>
       </c>
       <c r="D55">
-        <v>1106.6589414625121</v>
+        <v>1118.097729598556</v>
       </c>
       <c r="E55">
-        <v>1204.707469356772</v>
+        <v>1216.132117326126</v>
       </c>
       <c r="F55">
-        <v>1720.044123321012</v>
+        <v>1737.346172963486</v>
       </c>
       <c r="G55">
-        <v>2227.872018301226</v>
+        <v>2251.8532037972941</v>
       </c>
       <c r="H55">
-        <v>1527.1516337330729</v>
+        <v>1542.615888668726</v>
       </c>
       <c r="I55">
-        <v>1695.7579686095939</v>
+        <v>1711.392978536303</v>
       </c>
       <c r="J55">
-        <v>2113.140477295442</v>
+        <v>2135.3389451492321</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2163,31 +2167,31 @@
         <v>654</v>
       </c>
       <c r="B56">
-        <v>442.05741669268548</v>
+        <v>669.35485089265831</v>
       </c>
       <c r="C56">
-        <v>770.90985494926349</v>
+        <v>1048.4509008875821</v>
       </c>
       <c r="D56">
-        <v>783.3607589853176</v>
+        <v>1062.8699705255949</v>
       </c>
       <c r="E56">
-        <v>905.07580493756996</v>
+        <v>1201.9160756697211</v>
       </c>
       <c r="F56">
-        <v>1383.1971071488299</v>
+        <v>1841.5824985919121</v>
       </c>
       <c r="G56">
-        <v>1704.479010817267</v>
+        <v>2236.3960261704651</v>
       </c>
       <c r="H56">
-        <v>1026.676857508279</v>
+        <v>1350.0238177918411</v>
       </c>
       <c r="I56">
-        <v>1395.169320447611</v>
+        <v>1848.950640415301</v>
       </c>
       <c r="J56">
-        <v>1709.565661266407</v>
+        <v>2240.4552190549261</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2195,31 +2199,31 @@
         <v>658</v>
       </c>
       <c r="B57">
-        <v>711.16913856228314</v>
+        <v>719.7432866088626</v>
       </c>
       <c r="C57">
-        <v>1114.9058326950189</v>
+        <v>1126.2025097541689</v>
       </c>
       <c r="D57">
-        <v>1136.148079814265</v>
+        <v>1147.1827088151961</v>
       </c>
       <c r="E57">
-        <v>1292.4850348316279</v>
+        <v>1305.0407651885951</v>
       </c>
       <c r="F57">
-        <v>1796.2262070255581</v>
+        <v>1812.8065575412661</v>
       </c>
       <c r="G57">
-        <v>2013.161030111823</v>
+        <v>2031.553962013443</v>
       </c>
       <c r="H57">
-        <v>1382.3293269265109</v>
+        <v>1394.703301701127</v>
       </c>
       <c r="I57">
-        <v>1794.8159359159081</v>
+        <v>1812.108004265689</v>
       </c>
       <c r="J57">
-        <v>2132.1690363768662</v>
+        <v>2150.6589041116499</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2227,31 +2231,31 @@
         <v>126</v>
       </c>
       <c r="B58">
-        <v>-148.06535826058931</v>
+        <v>691.19076312604045</v>
       </c>
       <c r="C58">
-        <v>117.12011367791639</v>
+        <v>1124.1412674213279</v>
       </c>
       <c r="D58">
-        <v>143.52413811153201</v>
+        <v>1160.7167939448659</v>
       </c>
       <c r="E58">
-        <v>229.84096919681909</v>
+        <v>1289.5663162442611</v>
       </c>
       <c r="F58">
-        <v>529.09322901213386</v>
+        <v>1789.3367217810819</v>
       </c>
       <c r="G58">
-        <v>745.36791896911154</v>
+        <v>2144.5465819875149</v>
       </c>
       <c r="H58">
-        <v>352.01216088923172</v>
+        <v>1489.319126990885</v>
       </c>
       <c r="I58">
-        <v>532.58772679377967</v>
+        <v>1786.2460767146331</v>
       </c>
       <c r="J58">
-        <v>673.3650922947736</v>
+        <v>2024.936351789391</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2259,31 +2263,31 @@
         <v>284</v>
       </c>
       <c r="B59">
-        <v>19.980269756924169</v>
+        <v>665.07016223139647</v>
       </c>
       <c r="C59">
-        <v>296.9014256285638</v>
+        <v>1061.2346327630351</v>
       </c>
       <c r="D59">
-        <v>286.07387957422139</v>
+        <v>1042.9358735413989</v>
       </c>
       <c r="E59">
-        <v>384.05642360939902</v>
+        <v>1181.149999656006</v>
       </c>
       <c r="F59">
-        <v>814.98558273694857</v>
+        <v>1936.545591180103</v>
       </c>
       <c r="G59">
-        <v>1000.020342875442</v>
+        <v>2222.530101826042</v>
       </c>
       <c r="H59">
-        <v>541.46692943729397</v>
+        <v>1439.616361458216</v>
       </c>
       <c r="I59">
-        <v>750.98125100313734</v>
+        <v>1819.037359333322</v>
       </c>
       <c r="J59">
-        <v>937.54104968192553</v>
+        <v>2131.879918010477</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2291,31 +2295,31 @@
         <v>151</v>
       </c>
       <c r="B60">
-        <v>-893.66976668884456</v>
+        <v>698.28112888849478</v>
       </c>
       <c r="C60">
-        <v>-677.98683505419467</v>
+        <v>1118.4417544754181</v>
       </c>
       <c r="D60">
-        <v>-672.28298772959954</v>
+        <v>1123.571650897931</v>
       </c>
       <c r="E60">
-        <v>-617.12313602200038</v>
+        <v>1231.4206476856909</v>
       </c>
       <c r="F60">
-        <v>-371.68235905526342</v>
+        <v>1807.563549922251</v>
       </c>
       <c r="G60">
-        <v>-236.16606785244409</v>
+        <v>2091.1678255754859</v>
       </c>
       <c r="H60">
-        <v>-531.05484246337687</v>
+        <v>1407.1540489840961</v>
       </c>
       <c r="I60">
-        <v>-309.07305806073128</v>
+        <v>1938.021445071962</v>
       </c>
       <c r="J60">
-        <v>-249.97786790335229</v>
+        <v>2084.377948498669</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2323,31 +2327,31 @@
         <v>314</v>
       </c>
       <c r="B61">
-        <v>595.38185167291044</v>
+        <v>670.67471324634244</v>
       </c>
       <c r="C61">
-        <v>1010.735475327093</v>
+        <v>1109.9893576244201</v>
       </c>
       <c r="D61">
-        <v>1008.6724633964531</v>
+        <v>1108.6860016148371</v>
       </c>
       <c r="E61">
-        <v>1117.38013938432</v>
+        <v>1221.4230626234969</v>
       </c>
       <c r="F61">
-        <v>1677.1671870691871</v>
+        <v>1842.9664884810099</v>
       </c>
       <c r="G61">
-        <v>1931.1031956367519</v>
+        <v>2108.3033368155939</v>
       </c>
       <c r="H61">
-        <v>1295.068900127488</v>
+        <v>1413.461791740692</v>
       </c>
       <c r="I61">
-        <v>1780.403143898473</v>
+        <v>1949.4232873720589</v>
       </c>
       <c r="J61">
-        <v>1898.6277146370419</v>
+        <v>2075.0719604815472</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2355,31 +2359,31 @@
         <v>611</v>
       </c>
       <c r="B62">
-        <v>-161.17972287600281</v>
+        <v>681.53571627914278</v>
       </c>
       <c r="C62">
-        <v>121.9520199143986</v>
+        <v>1128.5059776918731</v>
       </c>
       <c r="D62">
-        <v>107.32934783516551</v>
+        <v>1104.713964456389</v>
       </c>
       <c r="E62">
-        <v>191.15527426069369</v>
+        <v>1229.538494839534</v>
       </c>
       <c r="F62">
-        <v>500.19071080481052</v>
+        <v>1791.071230225999</v>
       </c>
       <c r="G62">
-        <v>731.42972146810939</v>
+        <v>2194.3962067771549</v>
       </c>
       <c r="H62">
-        <v>299.97487913672393</v>
+        <v>1402.881741036771</v>
       </c>
       <c r="I62">
-        <v>533.3627324663878</v>
+        <v>1841.9161905159269</v>
       </c>
       <c r="J62">
-        <v>686.3402255998144</v>
+        <v>2125.4404781772109</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2387,31 +2391,31 @@
         <v>770</v>
       </c>
       <c r="B63">
-        <v>-393.6385186814797</v>
+        <v>653.32960449189727</v>
       </c>
       <c r="C63">
-        <v>-157.71227019708351</v>
+        <v>1061.089251158234</v>
       </c>
       <c r="D63">
-        <v>-118.0459894974537</v>
+        <v>1121.760129160818</v>
       </c>
       <c r="E63">
-        <v>-59.332703718507133</v>
+        <v>1216.21589118366</v>
       </c>
       <c r="F63">
-        <v>260.48465270861351</v>
+        <v>1883.7696306453399</v>
       </c>
       <c r="G63">
-        <v>396.74268638291818</v>
+        <v>2094.672442876059</v>
       </c>
       <c r="H63">
-        <v>64.789174844101495</v>
+        <v>1446.6427365736049</v>
       </c>
       <c r="I63">
-        <v>310.83723715672772</v>
+        <v>1956.7930724253119</v>
       </c>
       <c r="J63">
-        <v>369.28020911003819</v>
+        <v>2065.7272414850722</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2419,31 +2423,31 @@
         <v>328</v>
       </c>
       <c r="B64">
-        <v>557.91045590833471</v>
+        <v>701.76795973587446</v>
       </c>
       <c r="C64">
-        <v>942.06429076885559</v>
+        <v>1129.954738659374</v>
       </c>
       <c r="D64">
-        <v>966.92339952920224</v>
+        <v>1154.5808714353921</v>
       </c>
       <c r="E64">
-        <v>1071.4937974786999</v>
+        <v>1272.504869319011</v>
       </c>
       <c r="F64">
-        <v>1498.252741809486</v>
+        <v>1758.8779234091819</v>
       </c>
       <c r="G64">
-        <v>1723.5725878000851</v>
+        <v>2010.681446776171</v>
       </c>
       <c r="H64">
-        <v>1236.711770962198</v>
+        <v>1452.406233440875</v>
       </c>
       <c r="I64">
-        <v>1671.2391555613669</v>
+        <v>1953.170404001062</v>
       </c>
       <c r="J64">
-        <v>1779.2061298524941</v>
+        <v>2066.0555532230601</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2483,31 +2487,31 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>864.62583138038678</v>
+        <v>1297.7084076195069</v>
       </c>
       <c r="C66">
-        <v>1066.370510337867</v>
+        <v>1521.89813258509</v>
       </c>
       <c r="D66">
-        <v>1112.9835354668769</v>
+        <v>1568.576411954796</v>
       </c>
       <c r="E66">
-        <v>809.64593118675509</v>
+        <v>1235.9967104257739</v>
       </c>
       <c r="F66">
-        <v>994.41275979845034</v>
+        <v>1436.5286424070509</v>
       </c>
       <c r="G66">
-        <v>1074.5460903051271</v>
+        <v>1528.3769982870069</v>
       </c>
       <c r="H66">
-        <v>1044.8356312434869</v>
+        <v>1495.60616388975</v>
       </c>
       <c r="I66">
-        <v>1198.2348183610461</v>
+        <v>1668.220154903486</v>
       </c>
       <c r="J66">
-        <v>1261.129792036892</v>
+        <v>1747.088377927535</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2515,31 +2519,31 @@
         <v>666</v>
       </c>
       <c r="B67">
-        <v>-6743.0843563101826</v>
+        <v>678.92183107551296</v>
       </c>
       <c r="C67">
-        <v>-6685.3668534385561</v>
+        <v>1013.971562495942</v>
       </c>
       <c r="D67">
-        <v>-6651.6181545141426</v>
+        <v>1156.2134791605449</v>
       </c>
       <c r="E67">
-        <v>-6631.1458802831403</v>
+        <v>1258.6631103763229</v>
       </c>
       <c r="F67">
-        <v>-6560.0732257010113</v>
+        <v>1841.819451654264</v>
       </c>
       <c r="G67">
-        <v>-6512.2898132987657</v>
+        <v>2190.5727943865049</v>
       </c>
       <c r="H67">
-        <v>-6597.621691123999</v>
+        <v>1480.4714473701331</v>
       </c>
       <c r="I67">
-        <v>-6565.4220842050227</v>
+        <v>1786.838278114803</v>
       </c>
       <c r="J67">
-        <v>-6557.7847330321119</v>
+        <v>2092.528045365972</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2547,31 +2551,31 @@
         <v>967</v>
       </c>
       <c r="B68">
-        <v>-168.5430119792897</v>
+        <v>662.23093357131302</v>
       </c>
       <c r="C68">
-        <v>126.9569060209016</v>
+        <v>1133.8518067665341</v>
       </c>
       <c r="D68">
-        <v>125.2363009575274</v>
+        <v>1127.1544004053969</v>
       </c>
       <c r="E68">
-        <v>188.94193619891061</v>
+        <v>1223.109990000677</v>
       </c>
       <c r="F68">
-        <v>559.17733274591444</v>
+        <v>1905.251586863679</v>
       </c>
       <c r="G68">
-        <v>712.96826893576872</v>
+        <v>2142.02780911839</v>
       </c>
       <c r="H68">
-        <v>289.64504717043752</v>
+        <v>1383.031537104077</v>
       </c>
       <c r="I68">
-        <v>505.05532115018889</v>
+        <v>1792.479591968161</v>
       </c>
       <c r="J68">
-        <v>696.45662527972047</v>
+        <v>2130.862344201772</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2579,31 +2583,31 @@
         <v>485</v>
       </c>
       <c r="B69">
-        <v>25.646884324432019</v>
+        <v>672.960811166854</v>
       </c>
       <c r="C69">
-        <v>324.06727500553961</v>
+        <v>1119.8270126219211</v>
       </c>
       <c r="D69">
-        <v>338.80467786856877</v>
+        <v>1138.2517838139031</v>
       </c>
       <c r="E69">
-        <v>428.89337713944832</v>
+        <v>1261.97652766638</v>
       </c>
       <c r="F69">
-        <v>733.82406756196144</v>
+        <v>1738.974121984827</v>
       </c>
       <c r="G69">
-        <v>1018.158454938769</v>
+        <v>2205.3205890021031</v>
       </c>
       <c r="H69">
-        <v>577.56325358142578</v>
+        <v>1491.333665464015</v>
       </c>
       <c r="I69">
-        <v>734.79084427890905</v>
+        <v>1730.148742544995</v>
       </c>
       <c r="J69">
-        <v>975.93027660081168</v>
+        <v>2141.2067457350049</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2611,31 +2615,31 @@
         <v>54</v>
       </c>
       <c r="B70">
-        <v>675.22235314423392</v>
+        <v>683.71114881359961</v>
       </c>
       <c r="C70">
-        <v>1081.396578503018</v>
+        <v>1092.377512861792</v>
       </c>
       <c r="D70">
-        <v>1074.0024302598799</v>
+        <v>1084.5902665923029</v>
       </c>
       <c r="E70">
-        <v>1180.19564992304</v>
+        <v>1191.8403298149469</v>
       </c>
       <c r="F70">
-        <v>1777.695827954346</v>
+        <v>1795.6352210848629</v>
       </c>
       <c r="G70">
-        <v>2162.8342336123869</v>
+        <v>2183.4057110081908</v>
       </c>
       <c r="H70">
-        <v>1358.346132039416</v>
+        <v>1370.487881259043</v>
       </c>
       <c r="I70">
-        <v>1850.7251918327891</v>
+        <v>1870.0336323561819</v>
       </c>
       <c r="J70">
-        <v>2207.1428524206008</v>
+        <v>2227.9182962090808</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2643,31 +2647,31 @@
         <v>155</v>
       </c>
       <c r="B71">
-        <v>-588.66779346960482</v>
+        <v>717.15478102414022</v>
       </c>
       <c r="C71">
-        <v>-367.54038791250372</v>
+        <v>1127.67277282124</v>
       </c>
       <c r="D71">
-        <v>-323.94994844641269</v>
+        <v>1192.938186293834</v>
       </c>
       <c r="E71">
-        <v>-289.8229695244321</v>
+        <v>1259.2535435762991</v>
       </c>
       <c r="F71">
-        <v>62.43962298816448</v>
+        <v>1934.0060968571629</v>
       </c>
       <c r="G71">
-        <v>124.48466110481429</v>
+        <v>2023.6505726225221</v>
       </c>
       <c r="H71">
-        <v>-146.2689055932758</v>
+        <v>1531.1535279737211</v>
       </c>
       <c r="I71">
-        <v>3.4430310755998752</v>
+        <v>1813.2524589080249</v>
       </c>
       <c r="J71">
-        <v>40.957564409835179</v>
+        <v>1900.9180599230519</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2707,31 +2711,31 @@
         <v>208</v>
       </c>
       <c r="B73">
-        <v>168.19234889951181</v>
+        <v>640.86391529709545</v>
       </c>
       <c r="C73">
-        <v>520.42560254918499</v>
+        <v>1119.0880165703691</v>
       </c>
       <c r="D73">
-        <v>495.15993354430873</v>
+        <v>1088.033195264587</v>
       </c>
       <c r="E73">
-        <v>597.02814196737131</v>
+        <v>1220.4761837033379</v>
       </c>
       <c r="F73">
-        <v>939.63516648481311</v>
+        <v>1747.921463550204</v>
       </c>
       <c r="G73">
-        <v>1179.4533887401531</v>
+        <v>2102.1673429776411</v>
       </c>
       <c r="H73">
-        <v>730.30413896784364</v>
+        <v>1407.425010320537</v>
       </c>
       <c r="I73">
-        <v>1041.4830093009359</v>
+        <v>1890.549382071614</v>
       </c>
       <c r="J73">
-        <v>1301.7037714037069</v>
+        <v>2283.4754902446139</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2739,31 +2743,31 @@
         <v>733</v>
       </c>
       <c r="B74">
-        <v>667.48277764956788</v>
+        <v>702.41065599072624</v>
       </c>
       <c r="C74">
-        <v>1059.814387017874</v>
+        <v>1104.6334619994041</v>
       </c>
       <c r="D74">
-        <v>1065.8973007939601</v>
+        <v>1111.667346165754</v>
       </c>
       <c r="E74">
-        <v>1198.1668336361699</v>
+        <v>1245.9019042343771</v>
       </c>
       <c r="F74">
-        <v>1763.8524264059199</v>
+        <v>1837.272352611132</v>
       </c>
       <c r="G74">
-        <v>2020.028115316614</v>
+        <v>2101.862103213964</v>
       </c>
       <c r="H74">
-        <v>1368.846949484305</v>
+        <v>1423.587868168938</v>
       </c>
       <c r="I74">
-        <v>1708.197255275177</v>
+        <v>1777.3786059080351</v>
       </c>
       <c r="J74">
-        <v>2110.7166895279101</v>
+        <v>2195.285701707669</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2771,31 +2775,31 @@
         <v>817</v>
       </c>
       <c r="B75">
-        <v>-1941.23067301624</v>
+        <v>624.61886138132957</v>
       </c>
       <c r="C75">
-        <v>-1761.622163624173</v>
+        <v>1080.4724255301251</v>
       </c>
       <c r="D75">
-        <v>-1765.929114596669</v>
+        <v>1071.080776434324</v>
       </c>
       <c r="E75">
-        <v>-1711.1578668032471</v>
+        <v>1203.617802139124</v>
       </c>
       <c r="F75">
-        <v>-1508.195814921241</v>
+        <v>1887.3053962135029</v>
       </c>
       <c r="G75">
-        <v>-1439.1717034452629</v>
+        <v>2051.894942694455</v>
       </c>
       <c r="H75">
-        <v>-1644.9570404431799</v>
+        <v>1390.012139193484</v>
       </c>
       <c r="I75">
-        <v>-1492.9767646990069</v>
+        <v>1903.664451927247</v>
       </c>
       <c r="J75">
-        <v>-1403.6992502600881</v>
+        <v>2287.3332044864092</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2803,31 +2807,31 @@
         <v>546</v>
       </c>
       <c r="B76">
-        <v>-4040.3827182358518</v>
+        <v>724.99228744615232</v>
       </c>
       <c r="C76">
-        <v>-3921.8460949260998</v>
+        <v>1123.2664791575551</v>
       </c>
       <c r="D76">
-        <v>-3911.9876908555202</v>
+        <v>1193.764262874568</v>
       </c>
       <c r="E76">
-        <v>-3892.9009443463929</v>
+        <v>1266.3436996367391</v>
       </c>
       <c r="F76">
-        <v>-3762.629203644778</v>
+        <v>1800.266669011625</v>
       </c>
       <c r="G76">
-        <v>-3724.266759432785</v>
+        <v>2169.2408572939762</v>
       </c>
       <c r="H76">
-        <v>-3814.0801227394631</v>
+        <v>1501.999889815012</v>
       </c>
       <c r="I76">
-        <v>-3759.5168500242671</v>
+        <v>1757.6602497451861</v>
       </c>
       <c r="J76">
-        <v>-3717.949418304403</v>
+        <v>1962.465605019187</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2835,31 +2839,31 @@
         <v>486</v>
       </c>
       <c r="B77">
-        <v>167.92664865092209</v>
+        <v>621.1818321068688</v>
       </c>
       <c r="C77">
-        <v>505.05961112799969</v>
+        <v>1081.542974352556</v>
       </c>
       <c r="D77">
-        <v>522.62986293440804</v>
+        <v>1101.6999949656349</v>
       </c>
       <c r="E77">
-        <v>586.73297163302209</v>
+        <v>1184.5125402526689</v>
       </c>
       <c r="F77">
-        <v>1011.83776677987</v>
+        <v>1867.365376098805</v>
       </c>
       <c r="G77">
-        <v>1232.001980786883</v>
+        <v>2159.200197410411</v>
       </c>
       <c r="H77">
-        <v>736.21311708768962</v>
+        <v>1402.9804762235849</v>
       </c>
       <c r="I77">
-        <v>1079.67322679822</v>
+        <v>1953.589124422663</v>
       </c>
       <c r="J77">
-        <v>1207.8670047263549</v>
+        <v>2127.9274841668062</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2867,31 +2871,31 @@
         <v>774</v>
       </c>
       <c r="B78">
-        <v>-1243.178629951077</v>
+        <v>644.84766979363644</v>
       </c>
       <c r="C78">
-        <v>-1027.9385046019399</v>
+        <v>1077.6878620959301</v>
       </c>
       <c r="D78">
-        <v>-1033.811981327709</v>
+        <v>1082.998462175879</v>
       </c>
       <c r="E78">
-        <v>-1000.648938007527</v>
+        <v>1146.630032794759</v>
       </c>
       <c r="F78">
-        <v>-732.81496627993863</v>
+        <v>1891.5154642439511</v>
       </c>
       <c r="G78">
-        <v>-619.302815929188</v>
+        <v>2257.4197495135668</v>
       </c>
       <c r="H78">
-        <v>-902.13409630051649</v>
+        <v>1338.9292461991199</v>
       </c>
       <c r="I78">
-        <v>-741.67369815553116</v>
+        <v>1851.4350613959041</v>
       </c>
       <c r="J78">
-        <v>-605.64269567795657</v>
+        <v>2208.5364517872522</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2899,31 +2903,31 @@
         <v>682</v>
       </c>
       <c r="B79">
-        <v>192.49705298419261</v>
+        <v>670.30879920335678</v>
       </c>
       <c r="C79">
-        <v>517.87324767243615</v>
+        <v>1102.9101365531751</v>
       </c>
       <c r="D79">
-        <v>512.21563088751338</v>
+        <v>1098.5499926934169</v>
       </c>
       <c r="E79">
-        <v>588.41988194139242</v>
+        <v>1194.0718927517401</v>
       </c>
       <c r="F79">
-        <v>974.14804189350139</v>
+        <v>1808.9786700669961</v>
       </c>
       <c r="G79">
-        <v>1132.738256221573</v>
+        <v>2031.150466223077</v>
       </c>
       <c r="H79">
-        <v>703.84223342405471</v>
+        <v>1356.068575215161</v>
       </c>
       <c r="I79">
-        <v>1055.4203256951489</v>
+        <v>1914.4651651347781</v>
       </c>
       <c r="J79">
-        <v>1330.030384946213</v>
+        <v>2323.4963021582962</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2931,31 +2935,31 @@
         <v>174</v>
       </c>
       <c r="B80">
-        <v>-644.05887341747393</v>
+        <v>663.22821257475994</v>
       </c>
       <c r="C80">
-        <v>-400.31025632109271</v>
+        <v>1125.169067666541</v>
       </c>
       <c r="D80">
-        <v>-391.07283149560283</v>
+        <v>1137.7480772277349</v>
       </c>
       <c r="E80">
-        <v>-334.28709223173968</v>
+        <v>1237.5508750088541</v>
       </c>
       <c r="F80">
-        <v>-73.05822697319266</v>
+        <v>1768.632107454579</v>
       </c>
       <c r="G80">
-        <v>66.390998349654041</v>
+        <v>2050.755722431566</v>
       </c>
       <c r="H80">
-        <v>-207.9905952164502</v>
+        <v>1478.195964859317</v>
       </c>
       <c r="I80">
-        <v>-53.571151223980202</v>
+        <v>1792.2966629790519</v>
       </c>
       <c r="J80">
-        <v>135.80592746089519</v>
+        <v>2246.4233097975971</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2963,31 +2967,31 @@
         <v>958</v>
       </c>
       <c r="B81">
-        <v>-1534.107860729564</v>
+        <v>698.63578925262732</v>
       </c>
       <c r="C81">
-        <v>-1395.5243155024939</v>
+        <v>1004.288806591404</v>
       </c>
       <c r="D81">
-        <v>-1318.1852525456179</v>
+        <v>1155.767023592899</v>
       </c>
       <c r="E81">
-        <v>-1292.224536602781</v>
+        <v>1216.008830811197</v>
       </c>
       <c r="F81">
-        <v>-1036.09875655007</v>
+        <v>2010.669153312866</v>
       </c>
       <c r="G81">
-        <v>-964.43454460544524</v>
+        <v>2218.8141739519292</v>
       </c>
       <c r="H81">
-        <v>-1254.194763066193</v>
+        <v>1312.8326346043059</v>
       </c>
       <c r="I81">
-        <v>-1118.8734430232801</v>
+        <v>1738.4732475967501</v>
       </c>
       <c r="J81">
-        <v>-1015.932350237505</v>
+        <v>2144.51034028602</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2995,31 +2999,31 @@
         <v>112</v>
       </c>
       <c r="B82">
-        <v>532.52322542665183</v>
+        <v>673.42946642920435</v>
       </c>
       <c r="C82">
-        <v>938.16253756979381</v>
+        <v>1121.5672561114461</v>
       </c>
       <c r="D82">
-        <v>917.76394375531777</v>
+        <v>1100.6276474194531</v>
       </c>
       <c r="E82">
-        <v>1039.27008772968</v>
+        <v>1232.4061506103151</v>
       </c>
       <c r="F82">
-        <v>1516.2935969639229</v>
+        <v>1800.937362457878</v>
       </c>
       <c r="G82">
-        <v>1824.8912732746151</v>
+        <v>2150.0644653260802</v>
       </c>
       <c r="H82">
-        <v>1172.432808562115</v>
+        <v>1384.5236716992099</v>
       </c>
       <c r="I82">
-        <v>1554.8244871220279</v>
+        <v>1839.340973628237</v>
       </c>
       <c r="J82">
-        <v>1867.941890852215</v>
+        <v>2197.1030063181738</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3027,31 +3031,31 @@
         <v>769</v>
       </c>
       <c r="B83">
-        <v>-402.53010339228138</v>
+        <v>662.57795405168611</v>
       </c>
       <c r="C83">
-        <v>-179.6186529438927</v>
+        <v>1028.8256866058109</v>
       </c>
       <c r="D83">
-        <v>-166.3316194209126</v>
+        <v>1046.012886105917</v>
       </c>
       <c r="E83">
-        <v>-84.517041455663488</v>
+        <v>1183.2236828379271</v>
       </c>
       <c r="F83">
-        <v>236.8278624448634</v>
+        <v>1900.4955662070779</v>
       </c>
       <c r="G83">
-        <v>461.42541850281748</v>
+        <v>2349.5119228160679</v>
       </c>
       <c r="H83">
-        <v>12.11394072940476</v>
+        <v>1369.5539239335719</v>
       </c>
       <c r="I83">
-        <v>264.68373913149242</v>
+        <v>1936.0333561179971</v>
       </c>
       <c r="J83">
-        <v>300.56385279123811</v>
+        <v>2023.7650213239419</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3059,31 +3063,31 @@
         <v>148</v>
       </c>
       <c r="B84">
-        <v>303.55963174780362</v>
+        <v>632.96883922898519</v>
       </c>
       <c r="C84">
-        <v>612.05083415568083</v>
+        <v>1020.216691609126</v>
       </c>
       <c r="D84">
-        <v>705.37204951151864</v>
+        <v>1130.8051787202351</v>
       </c>
       <c r="E84">
-        <v>737.81810685005632</v>
+        <v>1172.2746743793971</v>
       </c>
       <c r="F84">
-        <v>1279.2164865948389</v>
+        <v>1948.2256263173711</v>
       </c>
       <c r="G84">
-        <v>1463.6278523804931</v>
+        <v>2172.464804516962</v>
       </c>
       <c r="H84">
-        <v>921.16166121841979</v>
+        <v>1417.7805103621581</v>
       </c>
       <c r="I84">
-        <v>1206.0544372540851</v>
+        <v>1841.5161542261519</v>
       </c>
       <c r="J84">
-        <v>1452.6873704994639</v>
+        <v>2163.7475206396148</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3091,31 +3095,31 @@
         <v>664</v>
       </c>
       <c r="B85">
-        <v>-3627.852326740061</v>
+        <v>694.8722901936635</v>
       </c>
       <c r="C85">
-        <v>-3547.520875337369</v>
+        <v>962.61682631740564</v>
       </c>
       <c r="D85">
-        <v>-3498.7801220029751</v>
+        <v>1112.386862317594</v>
       </c>
       <c r="E85">
-        <v>-3463.955063144324</v>
+        <v>1230.487734365357</v>
       </c>
       <c r="F85">
-        <v>-3329.743510362161</v>
+        <v>1905.440362941634</v>
       </c>
       <c r="G85">
-        <v>-3273.5765350831161</v>
+        <v>2125.8608081744719</v>
       </c>
       <c r="H85">
-        <v>-3432.4877027494381</v>
+        <v>1366.0263706945941</v>
       </c>
       <c r="I85">
-        <v>-3340.9879602286419</v>
+        <v>1801.55510032145</v>
       </c>
       <c r="J85">
-        <v>-3283.749550717655</v>
+        <v>2300.75364467383</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3123,31 +3127,31 @@
         <v>972</v>
       </c>
       <c r="B86">
-        <v>-4.0828112062061583</v>
+        <v>634.01866270038488</v>
       </c>
       <c r="C86">
-        <v>252.80569801232551</v>
+        <v>1009.161048926409</v>
       </c>
       <c r="D86">
-        <v>317.23507175830758</v>
+        <v>1096.7160496992351</v>
       </c>
       <c r="E86">
-        <v>387.58441210011989</v>
+        <v>1197.7737019455731</v>
       </c>
       <c r="F86">
-        <v>740.87380901929464</v>
+        <v>1836.5377910215659</v>
       </c>
       <c r="G86">
-        <v>965.17574639226257</v>
+        <v>2205.7509129624618</v>
       </c>
       <c r="H86">
-        <v>482.93374874904652</v>
+        <v>1344.4761961548991</v>
       </c>
       <c r="I86">
-        <v>765.42899527267195</v>
+        <v>1863.8583501238029</v>
       </c>
       <c r="J86">
-        <v>1030.8989407911779</v>
+        <v>2311.7072864656661</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3155,31 +3159,31 @@
         <v>5</v>
       </c>
       <c r="B87">
-        <v>432.67078267171109</v>
+        <v>656.58072605084681</v>
       </c>
       <c r="C87">
-        <v>826.59165007682873</v>
+        <v>1131.0793744252269</v>
       </c>
       <c r="D87">
-        <v>846.20686773708439</v>
+        <v>1154.001752352573</v>
       </c>
       <c r="E87">
-        <v>944.21049511511842</v>
+        <v>1265.5341762138271</v>
       </c>
       <c r="F87">
-        <v>1415.2212542171389</v>
+        <v>1843.467741285707</v>
       </c>
       <c r="G87">
-        <v>1648.5831589294751</v>
+        <v>2126.952735803342</v>
       </c>
       <c r="H87">
-        <v>1141.894759280189</v>
+        <v>1504.523766565484</v>
       </c>
       <c r="I87">
-        <v>1291.998761932731</v>
+        <v>1683.7925495790801</v>
       </c>
       <c r="J87">
-        <v>1655.710238839247</v>
+        <v>2134.0671777239131</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3187,31 +3191,31 @@
         <v>454</v>
       </c>
       <c r="B88">
-        <v>-8.9747252002040234</v>
+        <v>624.58624289610293</v>
       </c>
       <c r="C88">
-        <v>308.10705845536251</v>
+        <v>1089.4064222275749</v>
       </c>
       <c r="D88">
-        <v>296.29042245792118</v>
+        <v>1075.036854425621</v>
       </c>
       <c r="E88">
-        <v>389.681090388862</v>
+        <v>1203.228093409984</v>
       </c>
       <c r="F88">
-        <v>740.04882513844473</v>
+        <v>1816.870752040656</v>
       </c>
       <c r="G88">
-        <v>965.23490482606542</v>
+        <v>2193.8157373129479</v>
       </c>
       <c r="H88">
-        <v>500.83383009105029</v>
+        <v>1373.093637394765</v>
       </c>
       <c r="I88">
-        <v>755.84132983593292</v>
+        <v>1827.9865066515219</v>
       </c>
       <c r="J88">
-        <v>1027.71020031286</v>
+        <v>2295.975753640827</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3219,31 +3223,31 @@
         <v>455</v>
       </c>
       <c r="B89">
-        <v>656.02597698555144</v>
+        <v>689.95403483525206</v>
       </c>
       <c r="C89">
-        <v>1039.8525471296709</v>
+        <v>1082.7134618991661</v>
       </c>
       <c r="D89">
-        <v>1066.1043210338789</v>
+        <v>1110.016062954692</v>
       </c>
       <c r="E89">
-        <v>1156.152424918123</v>
+        <v>1201.0516131425391</v>
       </c>
       <c r="F89">
-        <v>1727.5233824885761</v>
+        <v>1802.022832218242</v>
       </c>
       <c r="G89">
-        <v>2067.85010156318</v>
+        <v>2154.497836151404</v>
       </c>
       <c r="H89">
-        <v>1305.851018954098</v>
+        <v>1356.374364068412</v>
       </c>
       <c r="I89">
-        <v>1769.890503912917</v>
+        <v>1843.701474049662</v>
       </c>
       <c r="J89">
-        <v>2169.971786484929</v>
+        <v>2259.6683206806292</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3251,31 +3255,31 @@
         <v>80</v>
       </c>
       <c r="B90">
-        <v>-207.91287590299879</v>
+        <v>611.54120675768729</v>
       </c>
       <c r="C90">
-        <v>81.337594409409377</v>
+        <v>1075.886063186668</v>
       </c>
       <c r="D90">
-        <v>99.234204653329783</v>
+        <v>1100.0896871803409</v>
       </c>
       <c r="E90">
-        <v>152.71452114776011</v>
+        <v>1182.7255014963339</v>
       </c>
       <c r="F90">
-        <v>483.57481301419921</v>
+        <v>1826.331608919714</v>
       </c>
       <c r="G90">
-        <v>719.05864850680234</v>
+        <v>2269.501365146617</v>
       </c>
       <c r="H90">
-        <v>247.9969762163538</v>
+        <v>1336.7801677078819</v>
       </c>
       <c r="I90">
-        <v>499.82214324192529</v>
+        <v>1843.060256574397</v>
       </c>
       <c r="J90">
-        <v>705.81669022695974</v>
+        <v>2254.084143030364</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3283,31 +3287,31 @@
         <v>429</v>
       </c>
       <c r="B91">
-        <v>-174.43256310352339</v>
+        <v>652.45248053211253</v>
       </c>
       <c r="C91">
-        <v>96.713206238033649</v>
+        <v>1073.568528245888</v>
       </c>
       <c r="D91">
-        <v>95.522154518472647</v>
+        <v>1070.961825596894</v>
       </c>
       <c r="E91">
-        <v>182.4842482207109</v>
+        <v>1203.088270926145</v>
       </c>
       <c r="F91">
-        <v>523.50782978029872</v>
+        <v>1880.6385114242271</v>
       </c>
       <c r="G91">
-        <v>708.29338267464686</v>
+        <v>2174.6538486544978</v>
       </c>
       <c r="H91">
-        <v>280.57687763674568</v>
+        <v>1370.2615534524041</v>
       </c>
       <c r="I91">
-        <v>572.04814533731178</v>
+        <v>1949.256903053317</v>
       </c>
       <c r="J91">
-        <v>674.39632474686812</v>
+        <v>2125.1180781145158</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3315,31 +3319,31 @@
         <v>16</v>
       </c>
       <c r="B92">
-        <v>-6.3108943296939461</v>
+        <v>613.13391012665477</v>
       </c>
       <c r="C92">
-        <v>333.93284693108882</v>
+        <v>1118.520784487619</v>
       </c>
       <c r="D92">
-        <v>307.95013947721787</v>
+        <v>1083.9266895977701</v>
       </c>
       <c r="E92">
-        <v>371.45763453340572</v>
+        <v>1170.8260771282021</v>
       </c>
       <c r="F92">
-        <v>769.48994781456872</v>
+        <v>1870.7231227065181</v>
       </c>
       <c r="G92">
-        <v>997.70541580775557</v>
+        <v>2235.5957499667011</v>
       </c>
       <c r="H92">
-        <v>496.83861863893833</v>
+        <v>1357.9054453896931</v>
       </c>
       <c r="I92">
-        <v>769.69893650599283</v>
+        <v>1855.1444992016991</v>
       </c>
       <c r="J92">
-        <v>970.81595893983763</v>
+        <v>2194.2237213951471</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3347,31 +3351,31 @@
         <v>46</v>
       </c>
       <c r="B93">
-        <v>635.20160236544359</v>
+        <v>643.07649788748961</v>
       </c>
       <c r="C93">
-        <v>1052.687483257344</v>
+        <v>1063.1790330234419</v>
       </c>
       <c r="D93">
-        <v>1087.434636128299</v>
+        <v>1098.43729418356</v>
       </c>
       <c r="E93">
-        <v>1184.619319540732</v>
+        <v>1195.5753016635219</v>
       </c>
       <c r="F93">
-        <v>1650.7677053187469</v>
+        <v>1667.5408227653979</v>
       </c>
       <c r="G93">
-        <v>2214.3694273244018</v>
+        <v>2238.45778889543</v>
       </c>
       <c r="H93">
-        <v>1383.8588726702401</v>
+        <v>1397.0647656842921</v>
       </c>
       <c r="I93">
-        <v>1874.054119984931</v>
+        <v>1892.667598202587</v>
       </c>
       <c r="J93">
-        <v>2279.9005895063228</v>
+        <v>2304.0008976942781</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3379,31 +3383,31 @@
         <v>198</v>
       </c>
       <c r="B94">
-        <v>-367.61821091057169</v>
+        <v>699.52187788109461</v>
       </c>
       <c r="C94">
-        <v>-136.08800314128109</v>
+        <v>1099.5686691747269</v>
       </c>
       <c r="D94">
-        <v>-92.04435296948391</v>
+        <v>1162.490072737955</v>
       </c>
       <c r="E94">
-        <v>-32.381327393048963</v>
+        <v>1261.486910644712</v>
       </c>
       <c r="F94">
-        <v>275.67227013455238</v>
+        <v>1834.532202578022</v>
       </c>
       <c r="G94">
-        <v>447.65659925373842</v>
+        <v>2130.2441741727012</v>
       </c>
       <c r="H94">
-        <v>99.567677244743635</v>
+        <v>1503.9760352930759</v>
       </c>
       <c r="I94">
-        <v>270.09235687942783</v>
+        <v>1811.738988391895</v>
       </c>
       <c r="J94">
-        <v>366.49809802370169</v>
+        <v>1996.4410691258149</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3411,31 +3415,31 @@
         <v>549</v>
       </c>
       <c r="B95">
-        <v>38.656333365024139</v>
+        <v>671.97962666989497</v>
       </c>
       <c r="C95">
-        <v>329.72168482936178</v>
+        <v>1096.8479425593489</v>
       </c>
       <c r="D95">
-        <v>367.20699437051138</v>
+        <v>1144.241910171166</v>
       </c>
       <c r="E95">
-        <v>434.19476115747011</v>
+        <v>1242.7503470273959</v>
       </c>
       <c r="F95">
-        <v>804.53471837225447</v>
+        <v>1854.069548782807</v>
       </c>
       <c r="G95">
-        <v>909.06472660621034</v>
+        <v>2010.385571011836</v>
       </c>
       <c r="H95">
-        <v>551.82202670959282</v>
+        <v>1404.5686842214041</v>
       </c>
       <c r="I95">
-        <v>917.51061129206175</v>
+        <v>2020.8145335515219</v>
       </c>
       <c r="J95">
-        <v>951.87260814371689</v>
+        <v>2054.3418360046262</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3443,31 +3447,31 @@
         <v>313</v>
       </c>
       <c r="B96">
-        <v>214.68800036613641</v>
+        <v>695.52246834001016</v>
       </c>
       <c r="C96">
-        <v>546.45428400299113</v>
+        <v>1153.0678448970341</v>
       </c>
       <c r="D96">
-        <v>548.30147830345982</v>
+        <v>1156.171680168077</v>
       </c>
       <c r="E96">
-        <v>654.44805049572483</v>
+        <v>1292.1652583664029</v>
       </c>
       <c r="F96">
-        <v>1024.577282816238</v>
+        <v>1809.4913280802921</v>
       </c>
       <c r="G96">
-        <v>1222.937276037557</v>
+        <v>2071.3254327346158</v>
       </c>
       <c r="H96">
-        <v>820.34366653793188</v>
+        <v>1520.709260633093</v>
       </c>
       <c r="I96">
-        <v>998.5296704887329</v>
+        <v>1764.7387750581779</v>
       </c>
       <c r="J96">
-        <v>1194.5204227482011</v>
+        <v>2036.8079517222959</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3475,31 +3479,31 @@
         <v>423</v>
       </c>
       <c r="B97">
-        <v>-146.27517062426861</v>
+        <v>690.234286925064</v>
       </c>
       <c r="C97">
-        <v>119.9173544695098</v>
+        <v>1126.1759076930659</v>
       </c>
       <c r="D97">
-        <v>146.42254071257071</v>
+        <v>1162.8529383561499</v>
       </c>
       <c r="E97">
-        <v>232.18107427121441</v>
+        <v>1290.7753786680869</v>
       </c>
       <c r="F97">
-        <v>537.65169902759396</v>
+        <v>1799.4414657575819</v>
       </c>
       <c r="G97">
-        <v>738.35066481346075</v>
+        <v>2123.7751443038969</v>
       </c>
       <c r="H97">
-        <v>355.58564922892862</v>
+        <v>1492.951798987036</v>
       </c>
       <c r="I97">
-        <v>540.64844208786781</v>
+        <v>1796.562850028047</v>
       </c>
       <c r="J97">
-        <v>672.78604261331498</v>
+        <v>2017.2302292810709</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3507,31 +3511,31 @@
         <v>735</v>
       </c>
       <c r="B98">
-        <v>501.75034539288811</v>
+        <v>639.39398919130701</v>
       </c>
       <c r="C98">
-        <v>868.7412791522072</v>
+        <v>1043.7252799871339</v>
       </c>
       <c r="D98">
-        <v>900.33380776929823</v>
+        <v>1079.166884911931</v>
       </c>
       <c r="E98">
-        <v>986.57652492666932</v>
+        <v>1172.5408802313841</v>
       </c>
       <c r="F98">
-        <v>1591.1488579220179</v>
+        <v>1898.5408275907951</v>
       </c>
       <c r="G98">
-        <v>1779.175857948755</v>
+        <v>2104.8851545621169</v>
       </c>
       <c r="H98">
-        <v>1193.7510217720881</v>
+        <v>1413.3500689712121</v>
       </c>
       <c r="I98">
-        <v>1564.5017506766781</v>
+        <v>1862.0917929635409</v>
       </c>
       <c r="J98">
-        <v>1941.9598377839629</v>
+        <v>2286.3051215905762</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3539,31 +3543,31 @@
         <v>281</v>
       </c>
       <c r="B99">
-        <v>685.56174535304604</v>
+        <v>693.91663806819349</v>
       </c>
       <c r="C99">
-        <v>1072.9993944100279</v>
+        <v>1083.5702380303569</v>
       </c>
       <c r="D99">
-        <v>1077.464337337668</v>
+        <v>1088.3227605275649</v>
       </c>
       <c r="E99">
-        <v>1186.2237826283369</v>
+        <v>1197.266848468234</v>
       </c>
       <c r="F99">
-        <v>1775.5578990436391</v>
+        <v>1794.8006082840211</v>
       </c>
       <c r="G99">
-        <v>2073.5590733316908</v>
+        <v>2094.5538231410151</v>
       </c>
       <c r="H99">
-        <v>1398.7492023631719</v>
+        <v>1412.343665030982</v>
       </c>
       <c r="I99">
-        <v>1876.3772783559079</v>
+        <v>1895.4288596032291</v>
       </c>
       <c r="J99">
-        <v>2217.6580196027448</v>
+        <v>2239.7965588464058</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3571,31 +3575,31 @@
         <v>178</v>
       </c>
       <c r="B100">
-        <v>13668.7499343626</v>
+        <v>797.75061511508716</v>
       </c>
       <c r="C100">
-        <v>10250.795322635449</v>
+        <v>1067.778792211036</v>
       </c>
       <c r="D100">
-        <v>12782.311354285261</v>
+        <v>1259.1976086410009</v>
       </c>
       <c r="E100">
-        <v>23647.726324276849</v>
+        <v>1343.457135079864</v>
       </c>
       <c r="F100">
-        <v>36771.563332625723</v>
+        <v>1830.8034369828831</v>
       </c>
       <c r="G100">
-        <v>41234.719515030258</v>
+        <v>2034.9520483375809</v>
       </c>
       <c r="H100">
-        <v>28272.647268500041</v>
+        <v>1382.3867696063919</v>
       </c>
       <c r="I100">
-        <v>39603.584135073703</v>
+        <v>1718.120802166271</v>
       </c>
       <c r="J100">
-        <v>29932.605056849421</v>
+        <v>2065.5527918598818</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3603,69 +3607,72 @@
         <v>592</v>
       </c>
       <c r="B101">
-        <v>-691.15466628697868</v>
+        <v>608.29301309718062</v>
       </c>
       <c r="C101">
-        <v>-458.07419831403217</v>
+        <v>1051.698602195753</v>
       </c>
       <c r="D101">
-        <v>-443.2713065697111</v>
+        <v>1076.2715980251451</v>
       </c>
       <c r="E101">
-        <v>-370.767753133459</v>
+        <v>1216.3897207177199</v>
       </c>
       <c r="F101">
-        <v>-118.40248625735011</v>
+        <v>1797.026922814619</v>
       </c>
       <c r="G101">
-        <v>78.108632406781908</v>
+        <v>2230.751516721873</v>
       </c>
       <c r="H101">
-        <v>-276.25723975992793</v>
+        <v>1402.841698197574</v>
       </c>
       <c r="I101">
-        <v>-76.677284844221361</v>
+        <v>1880.5119143679799</v>
       </c>
       <c r="J101">
-        <v>70.245501869527985</v>
+        <v>2236.2150138621591</v>
       </c>
     </row>
     <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
       <c r="B102">
         <f>SUM(B2:B101)/100</f>
-        <v>-249.56400484935503</v>
+        <v>678.0878497766663</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:J102" si="0">SUM(C2:C101)/100</f>
-        <v>29.246016722066035</v>
+        <v>1089.4059003106754</v>
       </c>
       <c r="D102">
         <f t="shared" si="0"/>
-        <v>187.5883631788021</v>
+        <v>1125.5800936388321</v>
       </c>
       <c r="E102">
         <f t="shared" si="0"/>
-        <v>-36.713562386813209</v>
+        <v>1229.8758937609477</v>
       </c>
       <c r="F102">
         <f t="shared" si="0"/>
-        <v>1274.9742779745775</v>
+        <v>1848.286074434661</v>
       </c>
       <c r="G102">
         <f t="shared" si="0"/>
-        <v>1387.734533377967</v>
+        <v>2152.272605136925</v>
       </c>
       <c r="H102">
         <f t="shared" si="0"/>
-        <v>519.72929597570828</v>
+        <v>1399.2330354464411</v>
       </c>
       <c r="I102">
         <f t="shared" si="0"/>
-        <v>1236.0636517770747</v>
+        <v>1827.8342277779857</v>
       </c>
       <c r="J102">
         <f t="shared" si="0"/>
-        <v>1121.610072848888</v>
+        <v>2149.4243197168657</v>
       </c>
     </row>
   </sheetData>
